--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_6.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3302182.251640034</v>
+        <v>-3302829.224181218</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12279284.88778174</v>
+        <v>12279284.88778175</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681858</v>
+        <v>590120.9651681856</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>60.24410049029203</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>24.68690330538624</v>
+        <v>68.39702598806997</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>68.39702598806997</v>
       </c>
       <c r="G11" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806997</v>
       </c>
       <c r="H11" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.565094327417455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>32.99210285748827</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4251038644362595</v>
+        <v>0.4251038644362581</v>
       </c>
       <c r="T13" t="n">
         <v>9.028675106938165</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>68.39702598806991</v>
+        <v>60.244100490292</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="G14" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="H14" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.565094327417441</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>32.99210285748827</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>24.68690330538621</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4251038644362595</v>
+        <v>0.4251038644362581</v>
       </c>
       <c r="T16" t="n">
         <v>9.028675106938165</v>
@@ -1847,7 +1847,7 @@
         <v>16.45497867838804</v>
       </c>
       <c r="D17" t="n">
-        <v>6.074615754043805</v>
+        <v>6.074615754043925</v>
       </c>
       <c r="E17" t="n">
         <v>32.58791875473287</v>
@@ -1856,7 +1856,7 @@
         <v>56.76374647998625</v>
       </c>
       <c r="G17" t="n">
-        <v>63.87918891521426</v>
+        <v>63.87918891521429</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>56.76374647998625</v>
       </c>
       <c r="G20" t="n">
-        <v>63.87918891521429</v>
+        <v>63.87918891521446</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>186.2787451931122</v>
       </c>
       <c r="G26" t="n">
-        <v>193.3941876283402</v>
+        <v>193.3941876283403</v>
       </c>
       <c r="H26" t="n">
         <v>112.566723118609</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>6.463580779520739</v>
+        <v>6.463580779520738</v>
       </c>
       <c r="U28" t="n">
         <v>65.0262529514072</v>
@@ -2795,7 +2795,7 @@
         <v>145.969977391514</v>
       </c>
       <c r="D29" t="n">
-        <v>135.5896144671698</v>
+        <v>135.5896144671697</v>
       </c>
       <c r="E29" t="n">
         <v>162.1029174678588</v>
@@ -2846,19 +2846,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>30.42700853007085</v>
+        <v>30.42700853007079</v>
       </c>
       <c r="V29" t="n">
         <v>107.5181032350907</v>
       </c>
       <c r="W29" t="n">
-        <v>129.514998713126</v>
+        <v>129.5149987131259</v>
       </c>
       <c r="X29" t="n">
-        <v>149.8464808437408</v>
+        <v>149.8464808437407</v>
       </c>
       <c r="Y29" t="n">
-        <v>165.6719534638072</v>
+        <v>165.6719534638071</v>
       </c>
     </row>
     <row r="30">
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>3.626378395670427</v>
+        <v>3.62637839567037</v>
       </c>
       <c r="V30" t="n">
-        <v>10.89361275222652</v>
+        <v>10.89361275222646</v>
       </c>
       <c r="W30" t="n">
-        <v>28.97422846257143</v>
+        <v>28.97422846257138</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3001,19 +3001,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>6.463580779520739</v>
+        <v>6.463580779520681</v>
       </c>
       <c r="U31" t="n">
-        <v>65.0262529514072</v>
+        <v>65.02625295140714</v>
       </c>
       <c r="V31" t="n">
-        <v>31.92123277951055</v>
+        <v>31.92123277951049</v>
       </c>
       <c r="W31" t="n">
-        <v>65.07745859998693</v>
+        <v>65.07745859998687</v>
       </c>
       <c r="X31" t="n">
-        <v>5.125241644880646</v>
+        <v>5.125241644880589</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3032,7 +3032,7 @@
         <v>145.969977391514</v>
       </c>
       <c r="D32" t="n">
-        <v>135.5896144671698</v>
+        <v>135.5896144671697</v>
       </c>
       <c r="E32" t="n">
         <v>162.1029174678588</v>
@@ -3041,7 +3041,7 @@
         <v>186.2787451931122</v>
       </c>
       <c r="G32" t="n">
-        <v>193.3941876283403</v>
+        <v>193.3941876283402</v>
       </c>
       <c r="H32" t="n">
         <v>112.566723118609</v>
@@ -3083,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>30.42700853007085</v>
+        <v>30.42700853007079</v>
       </c>
       <c r="V32" t="n">
         <v>107.5181032350907</v>
       </c>
       <c r="W32" t="n">
-        <v>129.514998713126</v>
+        <v>129.5149987131259</v>
       </c>
       <c r="X32" t="n">
-        <v>149.8464808437408</v>
+        <v>149.8464808437407</v>
       </c>
       <c r="Y32" t="n">
-        <v>165.6719534638072</v>
+        <v>165.6719534638071</v>
       </c>
     </row>
     <row r="33">
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>3.626378395670427</v>
+        <v>3.62637839567037</v>
       </c>
       <c r="V33" t="n">
-        <v>10.89361275222652</v>
+        <v>10.89361275222646</v>
       </c>
       <c r="W33" t="n">
-        <v>28.97422846257143</v>
+        <v>28.97422846257138</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3238,19 +3238,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>6.463580779520739</v>
+        <v>6.463580779520681</v>
       </c>
       <c r="U34" t="n">
-        <v>65.0262529514072</v>
+        <v>65.02625295140714</v>
       </c>
       <c r="V34" t="n">
-        <v>31.92123277951055</v>
+        <v>31.92123277951049</v>
       </c>
       <c r="W34" t="n">
-        <v>65.07745859998693</v>
+        <v>65.07745859998687</v>
       </c>
       <c r="X34" t="n">
-        <v>5.125241644880646</v>
+        <v>5.125241644880589</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>171.2745894237984</v>
       </c>
       <c r="H35" t="n">
-        <v>90.44712491406725</v>
+        <v>90.44712491406722</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>8.307410325529045</v>
+        <v>8.30741032552902</v>
       </c>
       <c r="V35" t="n">
-        <v>85.39850503054893</v>
+        <v>85.3985050305489</v>
       </c>
       <c r="W35" t="n">
-        <v>107.3954005085842</v>
+        <v>107.3954005085841</v>
       </c>
       <c r="X35" t="n">
-        <v>127.726882639199</v>
+        <v>127.7268826391989</v>
       </c>
       <c r="Y35" t="n">
         <v>143.5523552592654</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>6.85463025802963</v>
+        <v>6.854630258029601</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>42.9066547468654</v>
+        <v>42.90665474686537</v>
       </c>
       <c r="V37" t="n">
-        <v>9.801634574968745</v>
+        <v>9.801634574968716</v>
       </c>
       <c r="W37" t="n">
-        <v>42.95786039544512</v>
+        <v>42.9578603954451</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>171.2745894237984</v>
       </c>
       <c r="H38" t="n">
-        <v>90.44712491406725</v>
+        <v>90.44712491406722</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>8.307410325529045</v>
+        <v>8.307410325529016</v>
       </c>
       <c r="V38" t="n">
-        <v>85.39850503054893</v>
+        <v>85.3985050305489</v>
       </c>
       <c r="W38" t="n">
-        <v>107.3954005085842</v>
+        <v>107.3954005085841</v>
       </c>
       <c r="X38" t="n">
-        <v>127.726882639199</v>
+        <v>127.7268826391989</v>
       </c>
       <c r="Y38" t="n">
         <v>143.5523552592654</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>6.85463025802963</v>
+        <v>6.854630258029601</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>42.9066547468654</v>
+        <v>42.90665474686537</v>
       </c>
       <c r="V40" t="n">
-        <v>9.801634574968745</v>
+        <v>9.801634574968716</v>
       </c>
       <c r="W40" t="n">
-        <v>42.95786039544512</v>
+        <v>42.9578603954451</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>123.8503791869722</v>
       </c>
       <c r="D41" t="n">
-        <v>113.470016262628</v>
+        <v>113.4700162626279</v>
       </c>
       <c r="E41" t="n">
         <v>139.983319263317</v>
@@ -3752,10 +3752,10 @@
         <v>164.1591469885704</v>
       </c>
       <c r="G41" t="n">
-        <v>171.2745894237985</v>
+        <v>171.2745894237984</v>
       </c>
       <c r="H41" t="n">
-        <v>90.44712491406725</v>
+        <v>90.44712491406719</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>8.307410325529048</v>
+        <v>8.307410325528988</v>
       </c>
       <c r="V41" t="n">
-        <v>85.39850503054893</v>
+        <v>85.39850503054888</v>
       </c>
       <c r="W41" t="n">
-        <v>107.3954005085842</v>
+        <v>107.3954005085841</v>
       </c>
       <c r="X41" t="n">
-        <v>127.726882639199</v>
+        <v>127.7268826391989</v>
       </c>
       <c r="Y41" t="n">
-        <v>143.5523552592654</v>
+        <v>143.5523552592653</v>
       </c>
     </row>
     <row r="42">
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>6.85463025802963</v>
+        <v>6.854630258029573</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>42.9066547468654</v>
+        <v>42.90665474686534</v>
       </c>
       <c r="V43" t="n">
-        <v>9.801634574968745</v>
+        <v>9.801634574968688</v>
       </c>
       <c r="W43" t="n">
-        <v>42.95786039544512</v>
+        <v>42.95786039544507</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>168.5838381209911</v>
+        <v>212.7354771944092</v>
       </c>
       <c r="C11" t="n">
-        <v>168.5838381209911</v>
+        <v>212.7354771944092</v>
       </c>
       <c r="D11" t="n">
-        <v>168.5838381209911</v>
+        <v>212.7354771944092</v>
       </c>
       <c r="E11" t="n">
-        <v>143.6475721559545</v>
+        <v>143.6475721559547</v>
       </c>
       <c r="F11" t="n">
-        <v>143.6475721559545</v>
+        <v>74.55966711750013</v>
       </c>
       <c r="G11" t="n">
-        <v>74.55966711750006</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="H11" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="I11" t="n">
-        <v>35.56706215439188</v>
+        <v>35.56706215439189</v>
       </c>
       <c r="J11" t="n">
-        <v>35.56706215439188</v>
+        <v>35.56706215439189</v>
       </c>
       <c r="K11" t="n">
-        <v>35.56706215439188</v>
+        <v>35.56706215439189</v>
       </c>
       <c r="L11" t="n">
-        <v>93.85293350575502</v>
+        <v>35.56706215439189</v>
       </c>
       <c r="M11" t="n">
-        <v>93.85293350575502</v>
+        <v>103.2801178825812</v>
       </c>
       <c r="N11" t="n">
-        <v>147.4925707399813</v>
+        <v>165.8971027405233</v>
       </c>
       <c r="O11" t="n">
-        <v>215.2056264681705</v>
+        <v>165.8971027405233</v>
       </c>
       <c r="P11" t="n">
-        <v>215.2056264681705</v>
+        <v>165.8971027405233</v>
       </c>
       <c r="Q11" t="n">
-        <v>215.2056264681705</v>
+        <v>215.2056264681707</v>
       </c>
       <c r="R11" t="n">
-        <v>251.0794834348</v>
+        <v>251.0794834348003</v>
       </c>
       <c r="S11" t="n">
-        <v>273.5881039522797</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="T11" t="n">
-        <v>270.9970995811509</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="U11" t="n">
-        <v>237.6717431594456</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="V11" t="n">
-        <v>168.5838381209911</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="W11" t="n">
-        <v>168.5838381209911</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="X11" t="n">
-        <v>168.5838381209911</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="Y11" t="n">
-        <v>168.5838381209911</v>
+        <v>273.5881039522799</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="C12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="D12" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="E12" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="F12" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="G12" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="H12" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="I12" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="J12" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="K12" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="L12" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="M12" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="N12" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="O12" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="P12" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="R12" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="S12" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="T12" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="U12" t="n">
-        <v>50.92431750291711</v>
+        <v>50.92431750291712</v>
       </c>
       <c r="V12" t="n">
         <v>37.32966388711515</v>
       </c>
       <c r="W12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="X12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045598</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045598</v>
       </c>
     </row>
     <row r="13">
@@ -5173,52 +5173,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.471762079045593</v>
+        <v>8.846527769093655</v>
       </c>
       <c r="C13" t="n">
-        <v>5.471762079045593</v>
+        <v>8.846527769093655</v>
       </c>
       <c r="D13" t="n">
-        <v>5.471762079045593</v>
+        <v>8.846527769093655</v>
       </c>
       <c r="E13" t="n">
-        <v>5.471762079045593</v>
+        <v>76.55958349728293</v>
       </c>
       <c r="F13" t="n">
-        <v>5.471762079045593</v>
+        <v>144.2726392254722</v>
       </c>
       <c r="G13" t="n">
-        <v>5.471762079045593</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="H13" t="n">
-        <v>63.47835070572656</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="I13" t="n">
-        <v>63.47835070572656</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="J13" t="n">
-        <v>63.47835070572656</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="K13" t="n">
-        <v>63.47835070572656</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="L13" t="n">
-        <v>63.47835070572656</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="M13" t="n">
-        <v>63.47835070572656</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="N13" t="n">
-        <v>63.47835070572656</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="O13" t="n">
-        <v>131.1914064339158</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="P13" t="n">
-        <v>141.022312848617</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="Q13" t="n">
-        <v>141.022312848617</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="R13" t="n">
         <v>194.5252895180218</v>
@@ -5239,10 +5239,10 @@
         <v>13.54144478617197</v>
       </c>
       <c r="X13" t="n">
-        <v>5.773428652537551</v>
+        <v>5.773428652537556</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045598</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>143.6475721559545</v>
+        <v>212.7354771944092</v>
       </c>
       <c r="C14" t="n">
-        <v>143.6475721559545</v>
+        <v>212.7354771944092</v>
       </c>
       <c r="D14" t="n">
-        <v>143.6475721559545</v>
+        <v>212.7354771944092</v>
       </c>
       <c r="E14" t="n">
-        <v>143.6475721559545</v>
+        <v>143.6475721559547</v>
       </c>
       <c r="F14" t="n">
-        <v>143.6475721559545</v>
+        <v>74.55966711750014</v>
       </c>
       <c r="G14" t="n">
-        <v>74.55966711750006</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="H14" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="I14" t="n">
-        <v>35.56706215439188</v>
+        <v>35.56706215439189</v>
       </c>
       <c r="J14" t="n">
-        <v>103.2801178825811</v>
+        <v>35.56706215439189</v>
       </c>
       <c r="K14" t="n">
-        <v>163.201389062855</v>
+        <v>35.56706215439189</v>
       </c>
       <c r="L14" t="n">
-        <v>163.201389062855</v>
+        <v>93.85293350575506</v>
       </c>
       <c r="M14" t="n">
-        <v>163.201389062855</v>
+        <v>93.85293350575506</v>
       </c>
       <c r="N14" t="n">
-        <v>165.8971027405231</v>
+        <v>93.85293350575506</v>
       </c>
       <c r="O14" t="n">
-        <v>165.8971027405231</v>
+        <v>131.9207937947563</v>
       </c>
       <c r="P14" t="n">
-        <v>165.8971027405231</v>
+        <v>188.405723258003</v>
       </c>
       <c r="Q14" t="n">
-        <v>215.2056264681705</v>
+        <v>237.7142469856504</v>
       </c>
       <c r="R14" t="n">
-        <v>251.0794834348</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="S14" t="n">
-        <v>273.5881039522797</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="T14" t="n">
-        <v>270.9970995811509</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="U14" t="n">
-        <v>237.6717431594456</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="V14" t="n">
-        <v>212.735477194409</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="W14" t="n">
-        <v>212.735477194409</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="X14" t="n">
-        <v>212.735477194409</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="Y14" t="n">
-        <v>212.735477194409</v>
+        <v>273.5881039522799</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="C15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="D15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="E15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="F15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="G15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="H15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="I15" t="n">
-        <v>57.17833035452099</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="J15" t="n">
-        <v>57.17833035452099</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="K15" t="n">
-        <v>57.17833035452099</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="L15" t="n">
-        <v>57.17833035452099</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="M15" t="n">
-        <v>57.17833035452099</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="N15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="O15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="P15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="R15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="S15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="T15" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452101</v>
       </c>
       <c r="U15" t="n">
-        <v>50.92431750291711</v>
+        <v>50.92431750291712</v>
       </c>
       <c r="V15" t="n">
         <v>37.32966388711515</v>
       </c>
       <c r="W15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="X15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
     </row>
     <row r="16">
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.471762079045593</v>
+        <v>43.4544312236797</v>
       </c>
       <c r="C16" t="n">
-        <v>5.471762079045593</v>
+        <v>94.05676754220045</v>
       </c>
       <c r="D16" t="n">
-        <v>5.471762079045593</v>
+        <v>94.05676754220045</v>
       </c>
       <c r="E16" t="n">
-        <v>5.471762079045593</v>
+        <v>94.05676754220045</v>
       </c>
       <c r="F16" t="n">
-        <v>5.471762079045593</v>
+        <v>94.05676754220045</v>
       </c>
       <c r="G16" t="n">
-        <v>5.471762079045593</v>
+        <v>94.05676754220045</v>
       </c>
       <c r="H16" t="n">
-        <v>5.471762079045593</v>
+        <v>94.05676754220045</v>
       </c>
       <c r="I16" t="n">
-        <v>5.471762079045593</v>
+        <v>94.05676754220045</v>
       </c>
       <c r="J16" t="n">
-        <v>5.471762079045593</v>
+        <v>94.05676754220045</v>
       </c>
       <c r="K16" t="n">
-        <v>5.471762079045593</v>
+        <v>126.8122337898325</v>
       </c>
       <c r="L16" t="n">
-        <v>5.471762079045593</v>
+        <v>126.8122337898325</v>
       </c>
       <c r="M16" t="n">
-        <v>73.18481780723481</v>
+        <v>126.8122337898325</v>
       </c>
       <c r="N16" t="n">
-        <v>126.8122337898326</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="O16" t="n">
-        <v>126.8122337898326</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="P16" t="n">
         <v>194.5252895180218</v>
@@ -5476,10 +5476,10 @@
         <v>13.54144478617197</v>
       </c>
       <c r="X16" t="n">
-        <v>5.773428652537551</v>
+        <v>5.773428652537556</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.471762079045593</v>
+        <v>5.471762079045599</v>
       </c>
     </row>
     <row r="17">
@@ -5489,73 +5489,73 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>183.0075687278994</v>
+        <v>183.0075687278995</v>
       </c>
       <c r="C17" t="n">
-        <v>166.3863781436691</v>
+        <v>166.3863781436692</v>
       </c>
       <c r="D17" t="n">
-        <v>160.2504026345339</v>
+        <v>160.2504026345342</v>
       </c>
       <c r="E17" t="n">
-        <v>127.3333129832886</v>
+        <v>127.3333129832888</v>
       </c>
       <c r="F17" t="n">
-        <v>69.99619532673682</v>
+        <v>69.99619532673681</v>
       </c>
       <c r="G17" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="H17" t="n">
-        <v>22.25055491761735</v>
+        <v>22.25055491761736</v>
       </c>
       <c r="I17" t="n">
-        <v>22.25055491761735</v>
+        <v>89.96361064580665</v>
       </c>
       <c r="J17" t="n">
-        <v>22.25055491761735</v>
+        <v>89.96361064580665</v>
       </c>
       <c r="K17" t="n">
-        <v>48.67201024445711</v>
+        <v>89.96361064580665</v>
       </c>
       <c r="L17" t="n">
-        <v>48.67201024445711</v>
+        <v>116.3850659726465</v>
       </c>
       <c r="M17" t="n">
-        <v>48.67201024445711</v>
+        <v>116.3850659726465</v>
       </c>
       <c r="N17" t="n">
-        <v>48.67201024445711</v>
+        <v>116.3850659726465</v>
       </c>
       <c r="O17" t="n">
-        <v>48.67201024445711</v>
+        <v>116.3850659726465</v>
       </c>
       <c r="P17" t="n">
-        <v>48.67201024445711</v>
+        <v>116.3850659726465</v>
       </c>
       <c r="Q17" t="n">
-        <v>116.3850659726463</v>
+        <v>116.3850659726465</v>
       </c>
       <c r="R17" t="n">
-        <v>184.0981217008356</v>
+        <v>116.3850659726465</v>
       </c>
       <c r="S17" t="n">
-        <v>184.0981217008356</v>
+        <v>116.3850659726465</v>
       </c>
       <c r="T17" t="n">
-        <v>184.0981217008356</v>
+        <v>184.0981217008357</v>
       </c>
       <c r="U17" t="n">
-        <v>251.8111774290248</v>
+        <v>251.811177429025</v>
       </c>
       <c r="V17" t="n">
-        <v>273.5881039522797</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="W17" t="n">
-        <v>273.5881039522797</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="X17" t="n">
-        <v>253.0512533152951</v>
+        <v>253.0512533152953</v>
       </c>
       <c r="Y17" t="n">
         <v>216.5290767994555</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="C18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="D18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="E18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="F18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="G18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="H18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="I18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="J18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="K18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="L18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="M18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="N18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="O18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="P18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="R18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="S18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="T18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="U18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="V18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="W18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="X18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="C19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="D19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="E19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="F19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="G19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="H19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="I19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="J19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="K19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="L19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="M19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="N19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="O19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="P19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="R19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="S19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="T19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="U19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="V19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="W19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="X19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>183.0075687278994</v>
+        <v>183.0075687278997</v>
       </c>
       <c r="C20" t="n">
-        <v>166.386378143669</v>
+        <v>166.3863781436692</v>
       </c>
       <c r="D20" t="n">
-        <v>160.2504026345337</v>
+        <v>160.250402634534</v>
       </c>
       <c r="E20" t="n">
-        <v>127.3333129832883</v>
+        <v>127.3333129832886</v>
       </c>
       <c r="F20" t="n">
-        <v>69.9961953267368</v>
+        <v>69.99619532673698</v>
       </c>
       <c r="G20" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="H20" t="n">
-        <v>22.25055491761735</v>
+        <v>22.25055491761736</v>
       </c>
       <c r="I20" t="n">
-        <v>22.25055491761735</v>
+        <v>48.67201024445717</v>
       </c>
       <c r="J20" t="n">
-        <v>89.96361064580658</v>
+        <v>48.67201024445717</v>
       </c>
       <c r="K20" t="n">
-        <v>89.96361064580658</v>
+        <v>48.67201024445717</v>
       </c>
       <c r="L20" t="n">
-        <v>89.96361064580658</v>
+        <v>48.67201024445717</v>
       </c>
       <c r="M20" t="n">
-        <v>89.96361064580658</v>
+        <v>48.67201024445717</v>
       </c>
       <c r="N20" t="n">
-        <v>89.96361064580658</v>
+        <v>48.67201024445717</v>
       </c>
       <c r="O20" t="n">
-        <v>89.96361064580658</v>
+        <v>48.67201024445717</v>
       </c>
       <c r="P20" t="n">
-        <v>89.96361064580658</v>
+        <v>48.67201024445717</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.96361064580658</v>
+        <v>48.67201024445717</v>
       </c>
       <c r="R20" t="n">
-        <v>89.96361064580658</v>
+        <v>48.67201024445717</v>
       </c>
       <c r="S20" t="n">
-        <v>116.3850659726463</v>
+        <v>116.3850659726465</v>
       </c>
       <c r="T20" t="n">
-        <v>184.0981217008356</v>
+        <v>184.0981217008357</v>
       </c>
       <c r="U20" t="n">
-        <v>251.8111774290248</v>
+        <v>251.811177429025</v>
       </c>
       <c r="V20" t="n">
-        <v>273.5881039522797</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="W20" t="n">
-        <v>273.5881039522798</v>
+        <v>273.5881039522799</v>
       </c>
       <c r="X20" t="n">
-        <v>253.0512533152951</v>
+        <v>253.0512533152954</v>
       </c>
       <c r="Y20" t="n">
-        <v>216.5290767994554</v>
+        <v>216.5290767994557</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="C21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="D21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="E21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="F21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="G21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="H21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="I21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="J21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="K21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="L21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="M21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="N21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="O21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="P21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="R21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="S21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="T21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="U21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="V21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="W21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="X21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="C22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="D22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="E22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="F22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="G22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="H22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="I22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="J22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="K22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="L22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="M22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="N22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="O22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="P22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="R22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="S22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="T22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="U22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="V22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="W22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="X22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.471762079045594</v>
+        <v>5.471762079045599</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>183.0075687278992</v>
+        <v>183.0075687278996</v>
       </c>
       <c r="C23" t="n">
-        <v>166.3863781436689</v>
+        <v>166.3863781436693</v>
       </c>
       <c r="D23" t="n">
-        <v>160.2504026345338</v>
+        <v>160.2504026345342</v>
       </c>
       <c r="E23" t="n">
-        <v>127.3333129832885</v>
+        <v>127.3333129832889</v>
       </c>
       <c r="F23" t="n">
-        <v>69.9961953267368</v>
+        <v>69.99619532673681</v>
       </c>
       <c r="G23" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="H23" t="n">
-        <v>22.25055491761735</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="I23" t="n">
-        <v>48.67201024445708</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="J23" t="n">
-        <v>48.67201024445708</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="K23" t="n">
-        <v>48.67201024445708</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="L23" t="n">
-        <v>48.67201024445708</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="M23" t="n">
-        <v>48.67201024445708</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="N23" t="n">
-        <v>48.67201024445708</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="O23" t="n">
-        <v>48.67201024445708</v>
+        <v>70.44893676771206</v>
       </c>
       <c r="P23" t="n">
-        <v>116.3850659726463</v>
+        <v>70.44893676771206</v>
       </c>
       <c r="Q23" t="n">
-        <v>116.3850659726463</v>
+        <v>70.44893676771206</v>
       </c>
       <c r="R23" t="n">
-        <v>116.3850659726463</v>
+        <v>138.1619924959014</v>
       </c>
       <c r="S23" t="n">
-        <v>116.3850659726463</v>
+        <v>205.8750482240907</v>
       </c>
       <c r="T23" t="n">
-        <v>184.0981217008355</v>
+        <v>273.58810395228</v>
       </c>
       <c r="U23" t="n">
-        <v>251.8111774290247</v>
+        <v>273.58810395228</v>
       </c>
       <c r="V23" t="n">
-        <v>273.5881039522796</v>
+        <v>273.58810395228</v>
       </c>
       <c r="W23" t="n">
-        <v>273.5881039522796</v>
+        <v>273.58810395228</v>
       </c>
       <c r="X23" t="n">
-        <v>253.051253315295</v>
+        <v>253.0512533152954</v>
       </c>
       <c r="Y23" t="n">
-        <v>216.5290767994553</v>
+        <v>216.5290767994557</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="C24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="D24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="E24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="F24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="G24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="H24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="I24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="J24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="K24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="L24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="M24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="N24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="O24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="P24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="R24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="S24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="T24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="U24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="V24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="W24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="X24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="C25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="D25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="E25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="F25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="G25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="H25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="I25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="J25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="K25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="L25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="M25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="N25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="O25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="P25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="R25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="S25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="T25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="U25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="V25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="W25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="X25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.471762079045592</v>
+        <v>5.4717620790456</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>980.0203689923728</v>
       </c>
       <c r="C26" t="n">
-        <v>832.5759473847833</v>
+        <v>832.575947384783</v>
       </c>
       <c r="D26" t="n">
-        <v>695.6167408522886</v>
+        <v>695.6167408522883</v>
       </c>
       <c r="E26" t="n">
-        <v>531.8764201776836</v>
+        <v>531.8764201776834</v>
       </c>
       <c r="F26" t="n">
-        <v>343.7160714977722</v>
+        <v>343.716071497772</v>
       </c>
       <c r="G26" t="n">
         <v>148.3684072267213</v>
@@ -6227,28 +6227,28 @@
         <v>322.8814117543401</v>
       </c>
       <c r="K26" t="n">
-        <v>487.6672376527357</v>
+        <v>719.0822431020285</v>
       </c>
       <c r="L26" t="n">
-        <v>548.4925523882421</v>
+        <v>779.907557837535</v>
       </c>
       <c r="M26" t="n">
-        <v>622.3924183200194</v>
+        <v>853.8074237693123</v>
       </c>
       <c r="N26" t="n">
-        <v>698.446031390564</v>
+        <v>929.861036839857</v>
       </c>
       <c r="O26" t="n">
-        <v>942.7199626399301</v>
+        <v>1223.311381569944</v>
       </c>
       <c r="P26" t="n">
-        <v>1331.661853393831</v>
+        <v>1613.659704350692</v>
       </c>
       <c r="Q26" t="n">
-        <v>1602.10933488906</v>
+        <v>1665.302218741367</v>
       </c>
       <c r="R26" t="n">
-        <v>1708.184261141055</v>
+        <v>1733.232325042678</v>
       </c>
       <c r="S26" t="n">
         <v>1733.232325042678</v>
@@ -6324,7 +6324,7 @@
         <v>34.66464650085356</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="R27" t="n">
         <v>78.59820166294284</v>
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="C28" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="D28" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="E28" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="F28" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="G28" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="H28" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="I28" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J28" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="K28" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="L28" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="M28" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="N28" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="O28" t="n">
-        <v>75.18675902963091</v>
+        <v>147.7853429745589</v>
       </c>
       <c r="P28" t="n">
-        <v>75.18675902963091</v>
+        <v>147.7853429745589</v>
       </c>
       <c r="Q28" t="n">
         <v>210.0320876678294</v>
@@ -6437,55 +6437,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>980.0203689923732</v>
+        <v>980.0203689923729</v>
       </c>
       <c r="C29" t="n">
-        <v>832.5759473847833</v>
+        <v>832.575947384783</v>
       </c>
       <c r="D29" t="n">
-        <v>695.6167408522886</v>
+        <v>695.6167408522883</v>
       </c>
       <c r="E29" t="n">
         <v>531.8764201776835</v>
       </c>
       <c r="F29" t="n">
-        <v>343.7160714977722</v>
+        <v>343.716071497772</v>
       </c>
       <c r="G29" t="n">
-        <v>148.3684072267213</v>
+        <v>148.3684072267212</v>
       </c>
       <c r="H29" t="n">
-        <v>34.66464650085356</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="I29" t="n">
-        <v>67.29938996034309</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="J29" t="n">
-        <v>322.8814117543401</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="K29" t="n">
-        <v>500.2772759974742</v>
+        <v>430.8654778485421</v>
       </c>
       <c r="L29" t="n">
-        <v>561.1025907329806</v>
+        <v>491.6907925840486</v>
       </c>
       <c r="M29" t="n">
-        <v>635.0024566647578</v>
+        <v>565.5906585158259</v>
       </c>
       <c r="N29" t="n">
-        <v>711.0560697353025</v>
+        <v>641.6442715863707</v>
       </c>
       <c r="O29" t="n">
-        <v>1008.975156514306</v>
+        <v>1070.619272034433</v>
       </c>
       <c r="P29" t="n">
-        <v>1399.323479295054</v>
+        <v>1460.967594815182</v>
       </c>
       <c r="Q29" t="n">
-        <v>1669.770960790283</v>
+        <v>1627.157398790682</v>
       </c>
       <c r="R29" t="n">
-        <v>1708.184261141055</v>
+        <v>1733.232325042678</v>
       </c>
       <c r="S29" t="n">
         <v>1733.232325042678</v>
@@ -6497,7 +6497,7 @@
         <v>1702.497972992101</v>
       </c>
       <c r="V29" t="n">
-        <v>1593.893828310192</v>
+        <v>1593.893828310191</v>
       </c>
       <c r="W29" t="n">
         <v>1463.070597286832</v>
@@ -6506,7 +6506,7 @@
         <v>1311.710515626488</v>
       </c>
       <c r="Y29" t="n">
-        <v>1144.365108087289</v>
+        <v>1144.365108087288</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>34.66464650085356</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="C30" t="n">
-        <v>34.66464650085356</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="D30" t="n">
-        <v>34.66464650085356</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="E30" t="n">
-        <v>34.66464650085356</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="F30" t="n">
-        <v>34.66464650085356</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="G30" t="n">
-        <v>34.66464650085356</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="H30" t="n">
-        <v>34.66464650085356</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="I30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="J30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="K30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="L30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="M30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="N30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="O30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="P30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="Q30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="R30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="S30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294266</v>
       </c>
       <c r="T30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294266</v>
       </c>
       <c r="U30" t="n">
-        <v>74.93519318246766</v>
+        <v>74.93519318246753</v>
       </c>
       <c r="V30" t="n">
-        <v>63.9315439377944</v>
+        <v>63.93154393779433</v>
       </c>
       <c r="W30" t="n">
-        <v>34.66464650085356</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="X30" t="n">
-        <v>34.66464650085356</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="Y30" t="n">
-        <v>34.66464650085356</v>
+        <v>34.66464650085355</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="C31" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="D31" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="E31" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="F31" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="G31" t="n">
-        <v>75.18675902963091</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="H31" t="n">
-        <v>135.7327910404551</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="I31" t="n">
-        <v>208.2657720848874</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="J31" t="n">
-        <v>208.2657720848874</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="K31" t="n">
-        <v>208.2657720848874</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="L31" t="n">
-        <v>208.2657720848874</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="M31" t="n">
-        <v>208.2657720848874</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="N31" t="n">
-        <v>208.2657720848874</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="O31" t="n">
-        <v>208.2657720848874</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="P31" t="n">
-        <v>208.2657720848874</v>
+        <v>120.9026283420854</v>
       </c>
       <c r="Q31" t="n">
-        <v>208.2657720848874</v>
+        <v>210.0320876678291</v>
       </c>
       <c r="R31" t="n">
-        <v>208.2657720848874</v>
+        <v>210.0320876678291</v>
       </c>
       <c r="S31" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678291</v>
       </c>
       <c r="T31" t="n">
-        <v>203.503218193566</v>
+        <v>203.5032181935658</v>
       </c>
       <c r="U31" t="n">
-        <v>137.8201344042658</v>
+        <v>137.8201344042656</v>
       </c>
       <c r="V31" t="n">
-        <v>105.5764649300127</v>
+        <v>105.5764649300126</v>
       </c>
       <c r="W31" t="n">
-        <v>39.84165826335926</v>
+        <v>39.84165826335919</v>
       </c>
       <c r="X31" t="n">
-        <v>34.66464650085356</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="Y31" t="n">
-        <v>34.66464650085356</v>
+        <v>34.66464650085355</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>980.0203689923732</v>
+        <v>980.0203689923726</v>
       </c>
       <c r="C32" t="n">
-        <v>832.5759473847833</v>
+        <v>832.575947384783</v>
       </c>
       <c r="D32" t="n">
-        <v>695.6167408522886</v>
+        <v>695.6167408522883</v>
       </c>
       <c r="E32" t="n">
         <v>531.8764201776835</v>
@@ -6689,37 +6689,37 @@
         <v>343.7160714977722</v>
       </c>
       <c r="G32" t="n">
-        <v>148.3684072267213</v>
+        <v>148.3684072267212</v>
       </c>
       <c r="H32" t="n">
-        <v>34.66464650085356</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="I32" t="n">
-        <v>34.66464650085356</v>
+        <v>67.29938996034315</v>
       </c>
       <c r="J32" t="n">
-        <v>116.1447933136834</v>
+        <v>322.8814117543402</v>
       </c>
       <c r="K32" t="n">
-        <v>178.6055078781005</v>
+        <v>322.8814117543402</v>
       </c>
       <c r="L32" t="n">
-        <v>239.4308226136069</v>
+        <v>630.2843363701238</v>
       </c>
       <c r="M32" t="n">
-        <v>584.5907132294086</v>
+        <v>1059.259336818187</v>
       </c>
       <c r="N32" t="n">
-        <v>1013.565713677471</v>
+        <v>1201.630448820642</v>
       </c>
       <c r="O32" t="n">
-        <v>1257.839644926838</v>
+        <v>1272.63748054644</v>
       </c>
       <c r="P32" t="n">
-        <v>1550.261367777269</v>
+        <v>1331.66185339383</v>
       </c>
       <c r="Q32" t="n">
-        <v>1602.10933488906</v>
+        <v>1602.109334889059</v>
       </c>
       <c r="R32" t="n">
         <v>1708.184261141055</v>
@@ -6734,16 +6734,16 @@
         <v>1702.497972992101</v>
       </c>
       <c r="V32" t="n">
-        <v>1593.893828310192</v>
+        <v>1593.893828310191</v>
       </c>
       <c r="W32" t="n">
-        <v>1463.070597286832</v>
+        <v>1463.070597286831</v>
       </c>
       <c r="X32" t="n">
-        <v>1311.710515626488</v>
+        <v>1311.710515626487</v>
       </c>
       <c r="Y32" t="n">
-        <v>1144.365108087289</v>
+        <v>1144.365108087288</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>34.66464650085356</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="C33" t="n">
-        <v>34.66464650085356</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="D33" t="n">
-        <v>34.66464650085356</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="E33" t="n">
-        <v>34.66464650085356</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="F33" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294266</v>
       </c>
       <c r="G33" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294266</v>
       </c>
       <c r="H33" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294266</v>
       </c>
       <c r="I33" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294266</v>
       </c>
       <c r="J33" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294266</v>
       </c>
       <c r="K33" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294266</v>
       </c>
       <c r="L33" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294266</v>
       </c>
       <c r="M33" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294266</v>
       </c>
       <c r="N33" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294266</v>
       </c>
       <c r="O33" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294266</v>
       </c>
       <c r="P33" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294266</v>
       </c>
       <c r="Q33" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294266</v>
       </c>
       <c r="R33" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294266</v>
       </c>
       <c r="S33" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294266</v>
       </c>
       <c r="T33" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294266</v>
       </c>
       <c r="U33" t="n">
-        <v>74.93519318246766</v>
+        <v>74.93519318246753</v>
       </c>
       <c r="V33" t="n">
-        <v>63.9315439377944</v>
+        <v>63.93154393779433</v>
       </c>
       <c r="W33" t="n">
-        <v>34.66464650085356</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="X33" t="n">
-        <v>34.66464650085356</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="Y33" t="n">
-        <v>34.66464650085356</v>
+        <v>34.66464650085355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>34.66464650085356</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="C34" t="n">
-        <v>34.66464650085356</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="D34" t="n">
-        <v>34.66464650085356</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="E34" t="n">
-        <v>34.66464650085356</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="F34" t="n">
-        <v>76.95307461257293</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="G34" t="n">
-        <v>76.95307461257293</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="H34" t="n">
-        <v>137.4991066233972</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="I34" t="n">
-        <v>210.0320876678294</v>
+        <v>107.1976275452858</v>
       </c>
       <c r="J34" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678291</v>
       </c>
       <c r="K34" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678291</v>
       </c>
       <c r="L34" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678291</v>
       </c>
       <c r="M34" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678291</v>
       </c>
       <c r="N34" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678291</v>
       </c>
       <c r="O34" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678291</v>
       </c>
       <c r="P34" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678291</v>
       </c>
       <c r="Q34" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678291</v>
       </c>
       <c r="R34" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678291</v>
       </c>
       <c r="S34" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678291</v>
       </c>
       <c r="T34" t="n">
-        <v>203.503218193566</v>
+        <v>203.5032181935658</v>
       </c>
       <c r="U34" t="n">
-        <v>137.8201344042658</v>
+        <v>137.8201344042656</v>
       </c>
       <c r="V34" t="n">
-        <v>105.5764649300127</v>
+        <v>105.5764649300126</v>
       </c>
       <c r="W34" t="n">
-        <v>39.84165826335926</v>
+        <v>39.84165826335919</v>
       </c>
       <c r="X34" t="n">
-        <v>34.66464650085356</v>
+        <v>34.66464650085355</v>
       </c>
       <c r="Y34" t="n">
-        <v>34.66464650085356</v>
+        <v>34.66464650085355</v>
       </c>
     </row>
     <row r="35">
@@ -6911,64 +6911,64 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>840.4904359767102</v>
+        <v>840.4904359767099</v>
       </c>
       <c r="C35" t="n">
-        <v>715.3890428585568</v>
+        <v>715.3890428585564</v>
       </c>
       <c r="D35" t="n">
-        <v>600.7728648154982</v>
+        <v>600.7728648154979</v>
       </c>
       <c r="E35" t="n">
-        <v>459.3755726303294</v>
+        <v>459.3755726303291</v>
       </c>
       <c r="F35" t="n">
-        <v>293.5582524398542</v>
+        <v>293.558252439854</v>
       </c>
       <c r="G35" t="n">
         <v>120.5536166582395</v>
       </c>
       <c r="H35" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I35" t="n">
-        <v>83.72603010379389</v>
+        <v>83.7260301037939</v>
       </c>
       <c r="J35" t="n">
-        <v>361.2064541202872</v>
+        <v>361.2064541202873</v>
       </c>
       <c r="K35" t="n">
-        <v>445.5655709072008</v>
+        <v>445.5655709072009</v>
       </c>
       <c r="L35" t="n">
-        <v>528.2892878652036</v>
+        <v>528.2892878652037</v>
       </c>
       <c r="M35" t="n">
-        <v>624.0875560194772</v>
+        <v>624.0875560194775</v>
       </c>
       <c r="N35" t="n">
-        <v>722.0395713125183</v>
+        <v>973.0719467569719</v>
       </c>
       <c r="O35" t="n">
-        <v>930.2763174978556</v>
+        <v>973.0719467569719</v>
       </c>
       <c r="P35" t="n">
-        <v>1291.538262217729</v>
+        <v>1053.994721826858</v>
       </c>
       <c r="Q35" t="n">
-        <v>1365.284631552016</v>
+        <v>1262.82602426929</v>
       </c>
       <c r="R35" t="n">
         <v>1390.799352743782</v>
       </c>
       <c r="S35" t="n">
-        <v>1437.745818867902</v>
+        <v>1437.745818867901</v>
       </c>
       <c r="T35" t="n">
         <v>1459.644221090398</v>
       </c>
       <c r="U35" t="n">
-        <v>1451.252897529258</v>
+        <v>1451.252897529257</v>
       </c>
       <c r="V35" t="n">
         <v>1364.991781336784</v>
@@ -6980,7 +6980,7 @@
         <v>1127.494525631952</v>
       </c>
       <c r="Y35" t="n">
-        <v>982.4921465821894</v>
+        <v>982.4921465821893</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="C36" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="D36" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="E36" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="F36" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="G36" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="H36" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I36" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="J36" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="K36" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="L36" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="M36" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="N36" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="O36" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="P36" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.11675336931264</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="R36" t="n">
-        <v>36.11675336931264</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="S36" t="n">
-        <v>36.11675336931264</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="T36" t="n">
-        <v>36.11675336931264</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="U36" t="n">
-        <v>36.11675336931264</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="V36" t="n">
-        <v>36.11675336931264</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="W36" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="X36" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.19288442180796</v>
+        <v>108.4378121671463</v>
       </c>
       <c r="C37" t="n">
-        <v>29.19288442180796</v>
+        <v>108.4378121671463</v>
       </c>
       <c r="D37" t="n">
-        <v>29.19288442180796</v>
+        <v>108.4378121671463</v>
       </c>
       <c r="E37" t="n">
-        <v>29.19288442180796</v>
+        <v>108.4378121671463</v>
       </c>
       <c r="F37" t="n">
-        <v>29.19288442180796</v>
+        <v>108.4378121671463</v>
       </c>
       <c r="G37" t="n">
-        <v>29.19288442180796</v>
+        <v>108.4378121671463</v>
       </c>
       <c r="H37" t="n">
-        <v>29.19288442180796</v>
+        <v>108.4378121671463</v>
       </c>
       <c r="I37" t="n">
-        <v>29.19288442180796</v>
+        <v>108.4378121671463</v>
       </c>
       <c r="J37" t="n">
-        <v>29.19288442180796</v>
+        <v>108.4378121671463</v>
       </c>
       <c r="K37" t="n">
-        <v>29.19288442180796</v>
+        <v>108.4378121671463</v>
       </c>
       <c r="L37" t="n">
-        <v>29.19288442180796</v>
+        <v>110.3259016329352</v>
       </c>
       <c r="M37" t="n">
-        <v>125.8253588837062</v>
+        <v>110.3259016329352</v>
       </c>
       <c r="N37" t="n">
-        <v>125.8253588837062</v>
+        <v>110.3259016329352</v>
       </c>
       <c r="O37" t="n">
-        <v>125.8253588837062</v>
+        <v>110.3259016329352</v>
       </c>
       <c r="P37" t="n">
-        <v>125.8253588837062</v>
+        <v>110.3259016329352</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.8253588837062</v>
+        <v>110.3259016329352</v>
       </c>
       <c r="R37" t="n">
-        <v>125.8253588837062</v>
+        <v>110.3259016329352</v>
       </c>
       <c r="S37" t="n">
-        <v>125.8253588837062</v>
+        <v>110.3259016329352</v>
       </c>
       <c r="T37" t="n">
-        <v>125.8253588837062</v>
+        <v>125.8253588837061</v>
       </c>
       <c r="U37" t="n">
-        <v>82.48530358384218</v>
+        <v>82.48530358384211</v>
       </c>
       <c r="V37" t="n">
-        <v>72.58466259902526</v>
+        <v>72.58466259902522</v>
       </c>
       <c r="W37" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="X37" t="n">
-        <v>29.19288442180796</v>
+        <v>46.01729741587253</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.19288442180796</v>
+        <v>46.01729741587253</v>
       </c>
     </row>
     <row r="38">
@@ -7151,61 +7151,61 @@
         <v>840.49043597671</v>
       </c>
       <c r="C38" t="n">
-        <v>715.3890428585563</v>
+        <v>715.3890428585562</v>
       </c>
       <c r="D38" t="n">
-        <v>600.7728648154978</v>
+        <v>600.7728648154975</v>
       </c>
       <c r="E38" t="n">
-        <v>459.375572630329</v>
+        <v>459.3755726303289</v>
       </c>
       <c r="F38" t="n">
-        <v>293.5582524398538</v>
+        <v>293.5582524398536</v>
       </c>
       <c r="G38" t="n">
         <v>120.5536166582395</v>
       </c>
       <c r="H38" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I38" t="n">
-        <v>83.72603010379389</v>
+        <v>83.7260301037939</v>
       </c>
       <c r="J38" t="n">
-        <v>361.2064541202872</v>
+        <v>361.2064541202873</v>
       </c>
       <c r="K38" t="n">
-        <v>445.5655709072008</v>
+        <v>722.4683988401607</v>
       </c>
       <c r="L38" t="n">
-        <v>528.2892878652036</v>
+        <v>805.1921157981635</v>
       </c>
       <c r="M38" t="n">
-        <v>624.0875560194772</v>
+        <v>900.9903839524372</v>
       </c>
       <c r="N38" t="n">
-        <v>722.0395713125183</v>
+        <v>1108.156879865117</v>
       </c>
       <c r="O38" t="n">
-        <v>814.9450052608125</v>
+        <v>1108.156879865117</v>
       </c>
       <c r="P38" t="n">
-        <v>1108.063389663851</v>
+        <v>1189.079654935003</v>
       </c>
       <c r="Q38" t="n">
-        <v>1262.826024269291</v>
+        <v>1262.82602426929</v>
       </c>
       <c r="R38" t="n">
         <v>1390.799352743782</v>
       </c>
       <c r="S38" t="n">
-        <v>1437.745818867902</v>
+        <v>1437.745818867901</v>
       </c>
       <c r="T38" t="n">
         <v>1459.644221090398</v>
       </c>
       <c r="U38" t="n">
-        <v>1451.252897529258</v>
+        <v>1451.252897529257</v>
       </c>
       <c r="V38" t="n">
         <v>1364.991781336784</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="C39" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="D39" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="E39" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="F39" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="G39" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="H39" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I39" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="J39" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="K39" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="L39" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="M39" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="N39" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="O39" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="P39" t="n">
-        <v>36.11675336931264</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.11675336931264</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="R39" t="n">
-        <v>36.11675336931264</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="S39" t="n">
-        <v>36.11675336931264</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="T39" t="n">
-        <v>36.11675336931264</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="U39" t="n">
-        <v>36.11675336931264</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="V39" t="n">
-        <v>36.11675336931264</v>
+        <v>36.1167533693126</v>
       </c>
       <c r="W39" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="X39" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="C40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="D40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="E40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="F40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="G40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="H40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="J40" t="n">
-        <v>29.19288442180796</v>
+        <v>125.8253588837061</v>
       </c>
       <c r="K40" t="n">
-        <v>29.19288442180796</v>
+        <v>125.8253588837061</v>
       </c>
       <c r="L40" t="n">
-        <v>29.19288442180796</v>
+        <v>125.8253588837061</v>
       </c>
       <c r="M40" t="n">
-        <v>29.19288442180796</v>
+        <v>125.8253588837061</v>
       </c>
       <c r="N40" t="n">
-        <v>29.19288442180796</v>
+        <v>125.8253588837061</v>
       </c>
       <c r="O40" t="n">
-        <v>29.19288442180796</v>
+        <v>125.8253588837061</v>
       </c>
       <c r="P40" t="n">
-        <v>125.8253588837062</v>
+        <v>125.8253588837061</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.8253588837062</v>
+        <v>125.8253588837061</v>
       </c>
       <c r="R40" t="n">
-        <v>125.8253588837062</v>
+        <v>125.8253588837061</v>
       </c>
       <c r="S40" t="n">
-        <v>125.8253588837062</v>
+        <v>125.8253588837061</v>
       </c>
       <c r="T40" t="n">
-        <v>125.8253588837062</v>
+        <v>125.8253588837061</v>
       </c>
       <c r="U40" t="n">
-        <v>82.48530358384218</v>
+        <v>82.48530358384211</v>
       </c>
       <c r="V40" t="n">
-        <v>72.58466259902526</v>
+        <v>72.58466259902522</v>
       </c>
       <c r="W40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="X40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
     </row>
     <row r="41">
@@ -7385,64 +7385,64 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>840.4904359767104</v>
+        <v>840.49043597671</v>
       </c>
       <c r="C41" t="n">
-        <v>715.3890428585565</v>
+        <v>715.3890428585563</v>
       </c>
       <c r="D41" t="n">
         <v>600.772864815498</v>
       </c>
       <c r="E41" t="n">
-        <v>459.3755726303291</v>
+        <v>459.3755726303293</v>
       </c>
       <c r="F41" t="n">
-        <v>293.5582524398537</v>
+        <v>293.558252439854</v>
       </c>
       <c r="G41" t="n">
         <v>120.5536166582395</v>
       </c>
       <c r="H41" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I41" t="n">
-        <v>83.72603010379389</v>
+        <v>83.72603010379393</v>
       </c>
       <c r="J41" t="n">
-        <v>361.2064541202872</v>
+        <v>361.2064541202873</v>
       </c>
       <c r="K41" t="n">
-        <v>445.5655709072008</v>
+        <v>445.5655709072009</v>
       </c>
       <c r="L41" t="n">
-        <v>528.2892878652036</v>
+        <v>528.2892878652038</v>
       </c>
       <c r="M41" t="n">
-        <v>624.0875560194772</v>
+        <v>624.0875560194776</v>
       </c>
       <c r="N41" t="n">
-        <v>722.0395713125183</v>
+        <v>722.0395713125188</v>
       </c>
       <c r="O41" t="n">
-        <v>814.9450052608125</v>
+        <v>814.9450052608131</v>
       </c>
       <c r="P41" t="n">
-        <v>1176.206949980686</v>
+        <v>970.480140551565</v>
       </c>
       <c r="Q41" t="n">
-        <v>1271.811782240858</v>
+        <v>1262.82602426929</v>
       </c>
       <c r="R41" t="n">
         <v>1390.799352743782</v>
       </c>
       <c r="S41" t="n">
-        <v>1437.745818867902</v>
+        <v>1437.745818867901</v>
       </c>
       <c r="T41" t="n">
         <v>1459.644221090398</v>
       </c>
       <c r="U41" t="n">
-        <v>1451.252897529258</v>
+        <v>1451.252897529257</v>
       </c>
       <c r="V41" t="n">
         <v>1364.991781336784</v>
@@ -7451,10 +7451,10 @@
         <v>1256.511578802861</v>
       </c>
       <c r="X41" t="n">
-        <v>1127.494525631953</v>
+        <v>1127.494525631952</v>
       </c>
       <c r="Y41" t="n">
-        <v>982.4921465821898</v>
+        <v>982.4921465821894</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="C42" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="D42" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="E42" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="F42" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="G42" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="H42" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I42" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="J42" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="K42" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="L42" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="M42" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="N42" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="O42" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="P42" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="R42" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="S42" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="T42" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="U42" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="V42" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931258</v>
       </c>
       <c r="W42" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="X42" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.19288442180796</v>
+        <v>46.01729741587256</v>
       </c>
       <c r="C43" t="n">
-        <v>29.19288442180796</v>
+        <v>46.01729741587256</v>
       </c>
       <c r="D43" t="n">
-        <v>29.19288442180796</v>
+        <v>51.13486298451673</v>
       </c>
       <c r="E43" t="n">
-        <v>29.19288442180796</v>
+        <v>51.13486298451673</v>
       </c>
       <c r="F43" t="n">
-        <v>29.19288442180796</v>
+        <v>51.13486298451673</v>
       </c>
       <c r="G43" t="n">
-        <v>29.19288442180796</v>
+        <v>125.825358883706</v>
       </c>
       <c r="H43" t="n">
-        <v>29.19288442180796</v>
+        <v>125.825358883706</v>
       </c>
       <c r="I43" t="n">
-        <v>29.19288442180796</v>
+        <v>125.825358883706</v>
       </c>
       <c r="J43" t="n">
-        <v>125.8253588837062</v>
+        <v>125.825358883706</v>
       </c>
       <c r="K43" t="n">
-        <v>125.8253588837062</v>
+        <v>125.825358883706</v>
       </c>
       <c r="L43" t="n">
-        <v>125.8253588837062</v>
+        <v>125.825358883706</v>
       </c>
       <c r="M43" t="n">
-        <v>125.8253588837062</v>
+        <v>125.825358883706</v>
       </c>
       <c r="N43" t="n">
-        <v>125.8253588837062</v>
+        <v>125.825358883706</v>
       </c>
       <c r="O43" t="n">
-        <v>125.8253588837062</v>
+        <v>125.825358883706</v>
       </c>
       <c r="P43" t="n">
-        <v>125.8253588837062</v>
+        <v>125.825358883706</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.8253588837062</v>
+        <v>125.825358883706</v>
       </c>
       <c r="R43" t="n">
-        <v>125.8253588837062</v>
+        <v>125.825358883706</v>
       </c>
       <c r="S43" t="n">
-        <v>125.8253588837062</v>
+        <v>125.825358883706</v>
       </c>
       <c r="T43" t="n">
-        <v>125.8253588837062</v>
+        <v>125.825358883706</v>
       </c>
       <c r="U43" t="n">
-        <v>82.48530358384218</v>
+        <v>82.48530358384205</v>
       </c>
       <c r="V43" t="n">
-        <v>72.58466259902526</v>
+        <v>72.58466259902519</v>
       </c>
       <c r="W43" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="X43" t="n">
-        <v>29.19288442180796</v>
+        <v>46.01729741587256</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.19288442180796</v>
+        <v>46.01729741587256</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>840.4904359767102</v>
+        <v>840.4904359767097</v>
       </c>
       <c r="C44" t="n">
-        <v>715.3890428585564</v>
+        <v>715.389042858556</v>
       </c>
       <c r="D44" t="n">
-        <v>600.772864815498</v>
+        <v>600.7728648154975</v>
       </c>
       <c r="E44" t="n">
-        <v>459.3755726303292</v>
+        <v>459.3755726303287</v>
       </c>
       <c r="F44" t="n">
-        <v>293.558252439854</v>
+        <v>293.5582524398535</v>
       </c>
       <c r="G44" t="n">
         <v>120.5536166582395</v>
       </c>
       <c r="H44" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="I44" t="n">
-        <v>83.72603010379389</v>
+        <v>83.72603010379387</v>
       </c>
       <c r="J44" t="n">
-        <v>361.2064541202872</v>
+        <v>187.1045791391201</v>
       </c>
       <c r="K44" t="n">
-        <v>445.5655709072008</v>
+        <v>271.4636959260337</v>
       </c>
       <c r="L44" t="n">
-        <v>528.2892878652036</v>
+        <v>354.1874128840365</v>
       </c>
       <c r="M44" t="n">
-        <v>624.0875560194772</v>
+        <v>449.9856810383101</v>
       </c>
       <c r="N44" t="n">
-        <v>722.0395713125183</v>
+        <v>547.9376963313512</v>
       </c>
       <c r="O44" t="n">
-        <v>814.9450052608125</v>
+        <v>909.1996410512246</v>
       </c>
       <c r="P44" t="n">
-        <v>1091.368272574947</v>
+        <v>1189.079654935003</v>
       </c>
       <c r="Q44" t="n">
-        <v>1383.714156292672</v>
+        <v>1262.82602426929</v>
       </c>
       <c r="R44" t="n">
         <v>1390.799352743782</v>
       </c>
       <c r="S44" t="n">
-        <v>1437.745818867902</v>
+        <v>1437.745818867901</v>
       </c>
       <c r="T44" t="n">
         <v>1459.644221090398</v>
       </c>
       <c r="U44" t="n">
-        <v>1451.252897529258</v>
+        <v>1451.252897529257</v>
       </c>
       <c r="V44" t="n">
         <v>1364.991781336784</v>
       </c>
       <c r="W44" t="n">
-        <v>1256.511578802861</v>
+        <v>1256.51157880286</v>
       </c>
       <c r="X44" t="n">
-        <v>1127.494525631953</v>
+        <v>1127.494525631952</v>
       </c>
       <c r="Y44" t="n">
-        <v>982.4921465821897</v>
+        <v>982.4921465821892</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931263</v>
       </c>
       <c r="C45" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931263</v>
       </c>
       <c r="D45" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931263</v>
       </c>
       <c r="E45" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931263</v>
       </c>
       <c r="F45" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931263</v>
       </c>
       <c r="G45" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931263</v>
       </c>
       <c r="H45" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931263</v>
       </c>
       <c r="I45" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931263</v>
       </c>
       <c r="J45" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931263</v>
       </c>
       <c r="K45" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931263</v>
       </c>
       <c r="L45" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931263</v>
       </c>
       <c r="M45" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931263</v>
       </c>
       <c r="N45" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931263</v>
       </c>
       <c r="O45" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931263</v>
       </c>
       <c r="P45" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931263</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931263</v>
       </c>
       <c r="R45" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931263</v>
       </c>
       <c r="S45" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931263</v>
       </c>
       <c r="T45" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931263</v>
       </c>
       <c r="U45" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931263</v>
       </c>
       <c r="V45" t="n">
-        <v>36.11675336931264</v>
+        <v>36.11675336931263</v>
       </c>
       <c r="W45" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="X45" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931263</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="C46" t="n">
-        <v>104.2330663469684</v>
+        <v>104.2330663469683</v>
       </c>
       <c r="D46" t="n">
-        <v>104.2330663469684</v>
+        <v>104.2330663469683</v>
       </c>
       <c r="E46" t="n">
-        <v>104.2330663469684</v>
+        <v>104.2330663469683</v>
       </c>
       <c r="F46" t="n">
-        <v>104.2330663469684</v>
+        <v>104.2330663469683</v>
       </c>
       <c r="G46" t="n">
-        <v>104.2330663469684</v>
+        <v>104.2330663469683</v>
       </c>
       <c r="H46" t="n">
-        <v>104.2330663469684</v>
+        <v>104.2330663469683</v>
       </c>
       <c r="I46" t="n">
-        <v>104.2330663469684</v>
+        <v>104.2330663469683</v>
       </c>
       <c r="J46" t="n">
-        <v>104.2330663469684</v>
+        <v>104.2330663469683</v>
       </c>
       <c r="K46" t="n">
-        <v>104.2330663469684</v>
+        <v>104.2330663469683</v>
       </c>
       <c r="L46" t="n">
-        <v>104.2330663469684</v>
+        <v>104.2330663469683</v>
       </c>
       <c r="M46" t="n">
-        <v>104.2330663469684</v>
+        <v>104.2330663469683</v>
       </c>
       <c r="N46" t="n">
-        <v>104.2330663469684</v>
+        <v>104.2330663469683</v>
       </c>
       <c r="O46" t="n">
-        <v>110.3259016329354</v>
+        <v>104.2330663469683</v>
       </c>
       <c r="P46" t="n">
-        <v>110.3259016329354</v>
+        <v>104.2330663469683</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.3259016329354</v>
+        <v>104.2330663469683</v>
       </c>
       <c r="R46" t="n">
-        <v>110.3259016329354</v>
+        <v>104.2330663469683</v>
       </c>
       <c r="S46" t="n">
-        <v>110.3259016329354</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="T46" t="n">
         <v>125.8253588837062</v>
       </c>
       <c r="U46" t="n">
-        <v>82.48530358384218</v>
+        <v>82.48530358384217</v>
       </c>
       <c r="V46" t="n">
-        <v>72.58466259902526</v>
+        <v>72.58466259902525</v>
       </c>
       <c r="W46" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="X46" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.19288442180796</v>
+        <v>29.19288442180795</v>
       </c>
     </row>
   </sheetData>
@@ -8687,16 +8687,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K11" t="n">
-        <v>92.86189106996578</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>100.5187404447672</v>
       </c>
       <c r="M11" t="n">
-        <v>146.3687890634112</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>81.3071927190972</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>101.1486090703222</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>95.90842290065689</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>26.56871773410191</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>82.32375190725115</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>85.1122096929098</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K26" t="n">
-        <v>103.3586983171499</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>396.0321885132552</v>
+        <v>224.6902151558476</v>
       </c>
       <c r="P26" t="n">
         <v>334.6706564983419</v>
@@ -9957,22 +9957,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>83.34002595346593</v>
       </c>
       <c r="M27" t="n">
-        <v>78.19029710175252</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N27" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955187</v>
       </c>
       <c r="O27" t="n">
-        <v>82.32375190725115</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>150.4354315864262</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10036,22 +10036,22 @@
         <v>102.5727324697714</v>
       </c>
       <c r="L28" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>93.91583427681483</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>106.7517885160091</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>110.1177504068044</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>175.8604797789567</v>
+        <v>102.1997136581965</v>
       </c>
       <c r="K29" t="n">
         <v>337.1112290740114</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>241.9147714976461</v>
+        <v>361.5838067901664</v>
       </c>
       <c r="P29" t="n">
         <v>334.6706564983419</v>
@@ -10133,7 +10133,7 @@
         <v>220.8075902863009</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,31 +10185,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>95.90842290065686</v>
       </c>
       <c r="L30" t="n">
-        <v>83.34002595346595</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>78.19029710175252</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>66.06942948955187</v>
       </c>
       <c r="O30" t="n">
-        <v>82.32375190725115</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10270,22 +10270,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>93.91583427681483</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>106.7517885160091</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M32" t="n">
-        <v>274.0000249333581</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N32" t="n">
-        <v>356.4862498762809</v>
+        <v>66.9873726584961</v>
       </c>
       <c r="O32" t="n">
-        <v>396.0321885132552</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>334.6706564983419</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R32" t="n">
         <v>68.34507666790174</v>
@@ -10434,10 +10434,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>78.19029710175252</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>66.06942948955187</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10510,19 +10510,19 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>93.91583427681483</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.7517885160091</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10595,16 +10595,16 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>253.5680560044983</v>
       </c>
       <c r="O35" t="n">
-        <v>116.4962749869122</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>283.1708784343306</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R35" t="n">
         <v>68.34507666790174</v>
@@ -10662,10 +10662,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>101.1486090703222</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>95.90842290065689</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>82.32375190725115</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>92.10601671059129</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10747,16 +10747,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>103.7122645268752</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>279.6998261949089</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10832,16 +10832,16 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>110.3176571915541</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>104.5874113897451</v>
       </c>
       <c r="P38" t="n">
-        <v>334.6706564983419</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>81.8346113850024</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>68.34507666790174</v>
@@ -10899,25 +10899,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>83.34002595346595</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>66.06942948955188</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>89.31755892493264</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>92.10601671059126</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11075,10 +11075,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>283.1708784343305</v>
+        <v>75.36602042511667</v>
       </c>
       <c r="Q41" t="n">
-        <v>22.07925548069176</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R41" t="n">
         <v>68.34507666790174</v>
@@ -11136,28 +11136,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K42" t="n">
-        <v>95.90842290065689</v>
+        <v>88.80919252793825</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>83.34002595346593</v>
       </c>
       <c r="M42" t="n">
-        <v>78.19029710175252</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>82.32375190725115</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>85.1122096929098</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11221,19 +11221,19 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>175.8604797789567</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11309,13 +11309,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>315.9090470760696</v>
       </c>
       <c r="P44" t="n">
-        <v>197.4752446911598</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q44" t="n">
-        <v>220.8075902863009</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11376,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>102.9022299183384</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11455,19 +11455,19 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L46" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>104.1302923698531</v>
       </c>
       <c r="N46" t="n">
-        <v>93.91583427681483</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O46" t="n">
-        <v>112.9061675927434</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>165.2663860313839</v>
+        <v>105.0222855410918</v>
       </c>
       <c r="C11" t="n">
         <v>148.5350717189314</v>
@@ -23264,16 +23264,16 @@
         <v>138.1547087945872</v>
       </c>
       <c r="E11" t="n">
-        <v>139.98110848989</v>
+        <v>96.2709858072063</v>
       </c>
       <c r="F11" t="n">
-        <v>188.8438395205297</v>
+        <v>120.4468135324597</v>
       </c>
       <c r="G11" t="n">
         <v>127.5622559676877</v>
       </c>
       <c r="H11" t="n">
-        <v>46.73479145795656</v>
+        <v>115.1318174460265</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.56509432741744</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>32.99210285748828</v>
       </c>
       <c r="V11" t="n">
-        <v>41.68617157443825</v>
+        <v>110.0831975625082</v>
       </c>
       <c r="W11" t="n">
         <v>132.0800930405434</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>96.86936004331395</v>
+        <v>105.0222855410919</v>
       </c>
       <c r="C14" t="n">
         <v>148.5350717189314</v>
@@ -23501,16 +23501,16 @@
         <v>138.1547087945872</v>
       </c>
       <c r="E14" t="n">
-        <v>164.6680117952763</v>
+        <v>96.27098580720629</v>
       </c>
       <c r="F14" t="n">
-        <v>188.8438395205297</v>
+        <v>120.4468135324597</v>
       </c>
       <c r="G14" t="n">
         <v>127.5622559676877</v>
       </c>
       <c r="H14" t="n">
-        <v>46.73479145795657</v>
+        <v>115.1318174460265</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2.56509432741744</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>32.99210285748828</v>
       </c>
       <c r="V14" t="n">
-        <v>85.39629425712197</v>
+        <v>110.0831975625082</v>
       </c>
       <c r="W14" t="n">
         <v>132.0800930405434</v>
@@ -23561,7 +23561,7 @@
         <v>152.4115751711582</v>
       </c>
       <c r="Y14" t="n">
-        <v>168.2370477912246</v>
+        <v>168.2370477912247</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1129565.345328784</v>
+        <v>1129565.345328785</v>
       </c>
     </row>
     <row r="6">
@@ -26320,13 +26320,13 @@
         <v>121823.4566633611</v>
       </c>
       <c r="E2" t="n">
-        <v>104780.9642805139</v>
+        <v>104780.964280514</v>
       </c>
       <c r="F2" t="n">
         <v>104780.9642805139</v>
       </c>
       <c r="G2" t="n">
-        <v>122087.9112922405</v>
+        <v>122087.9112922404</v>
       </c>
       <c r="H2" t="n">
         <v>122087.9112922405</v>
@@ -26335,13 +26335,13 @@
         <v>122087.9112922405</v>
       </c>
       <c r="J2" t="n">
+        <v>122087.9112922404</v>
+      </c>
+      <c r="K2" t="n">
+        <v>122087.9112922404</v>
+      </c>
+      <c r="L2" t="n">
         <v>122087.9112922403</v>
-      </c>
-      <c r="K2" t="n">
-        <v>122087.9112922403</v>
-      </c>
-      <c r="L2" t="n">
-        <v>122087.9112922404</v>
       </c>
       <c r="M2" t="n">
         <v>122087.9112922404</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>284205.3843039991</v>
+        <v>284205.3843039992</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>166624.8083432522</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="L3" t="n">
         <v>105664.0744324347</v>
       </c>
       <c r="M3" t="n">
-        <v>17695.67856363344</v>
+        <v>17695.67856363342</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>71148.02019750816</v>
+        <v>71148.02019750819</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,28 +26424,28 @@
         <v>463552.1206356916</v>
       </c>
       <c r="E4" t="n">
-        <v>361458.6760153741</v>
+        <v>361458.676015374</v>
       </c>
       <c r="F4" t="n">
-        <v>361458.6760153741</v>
+        <v>361458.676015374</v>
       </c>
       <c r="G4" t="n">
-        <v>426193.4292983838</v>
+        <v>426193.4292983837</v>
       </c>
       <c r="H4" t="n">
-        <v>426193.4292983838</v>
+        <v>426193.4292983837</v>
       </c>
       <c r="I4" t="n">
         <v>426193.4292983838</v>
       </c>
       <c r="J4" t="n">
-        <v>434774.7393444278</v>
+        <v>434774.7393444277</v>
       </c>
       <c r="K4" t="n">
-        <v>434774.7393444278</v>
+        <v>434774.7393444277</v>
       </c>
       <c r="L4" t="n">
-        <v>434774.7393444278</v>
+        <v>434774.7393444277</v>
       </c>
       <c r="M4" t="n">
         <v>431062.8369613772</v>
@@ -26457,7 +26457,7 @@
         <v>431062.8369613772</v>
       </c>
       <c r="P4" t="n">
-        <v>431062.8369613773</v>
+        <v>431062.8369613772</v>
       </c>
     </row>
     <row r="5">
@@ -26488,7 +26488,7 @@
         <v>36042.87102508289</v>
       </c>
       <c r="I5" t="n">
-        <v>36042.87102508289</v>
+        <v>36042.8710250829</v>
       </c>
       <c r="J5" t="n">
         <v>47341.26675884315</v>
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-375356.2639723305</v>
+        <v>-375360.6715494785</v>
       </c>
       <c r="C6" t="n">
-        <v>-375356.2639723305</v>
+        <v>-375360.6715494785</v>
       </c>
       <c r="D6" t="n">
-        <v>-375356.2639723305</v>
+        <v>-375360.6715494785</v>
       </c>
       <c r="E6" t="n">
-        <v>-565822.1257221168</v>
+        <v>-566110.5748389789</v>
       </c>
       <c r="F6" t="n">
-        <v>-281616.7414181176</v>
+        <v>-281905.1905349796</v>
       </c>
       <c r="G6" t="n">
         <v>-445812.4634636609</v>
       </c>
       <c r="H6" t="n">
-        <v>-340148.3890312262</v>
+        <v>-340148.3890312261</v>
       </c>
       <c r="I6" t="n">
         <v>-340148.3890312262</v>
       </c>
       <c r="J6" t="n">
-        <v>-526652.9031542828</v>
+        <v>-526652.9031542826</v>
       </c>
       <c r="K6" t="n">
-        <v>-360028.0948110306</v>
+        <v>-360028.0948110305</v>
       </c>
       <c r="L6" t="n">
         <v>-465692.1692434652</v>
@@ -26710,10 +26710,10 @@
         <v>221.0151182874286</v>
       </c>
       <c r="K2" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="L2" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="M2" t="n">
         <v>243.1347164919704</v>
@@ -26722,7 +26722,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="O2" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="P2" t="n">
         <v>243.1347164919704</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="F3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="G3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="H3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="I3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="J3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="K3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="L3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="M3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="N3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="O3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="P3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806997</v>
       </c>
       <c r="F4" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="G4" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="H4" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="I4" t="n">
-        <v>68.3970259880699</v>
+        <v>68.39702598807</v>
       </c>
       <c r="J4" t="n">
-        <v>433.3080812606695</v>
+        <v>433.3080812606694</v>
       </c>
       <c r="K4" t="n">
-        <v>433.3080812606695</v>
+        <v>433.3080812606694</v>
       </c>
       <c r="L4" t="n">
-        <v>433.3080812606695</v>
+        <v>433.3080812606694</v>
       </c>
       <c r="M4" t="n">
-        <v>364.9110552725995</v>
+        <v>364.9110552725994</v>
       </c>
       <c r="N4" t="n">
-        <v>364.9110552725995</v>
+        <v>364.9110552725994</v>
       </c>
       <c r="O4" t="n">
-        <v>364.9110552725995</v>
+        <v>364.9110552725994</v>
       </c>
       <c r="P4" t="n">
-        <v>364.9110552725995</v>
+        <v>364.9110552725994</v>
       </c>
     </row>
   </sheetData>
@@ -26932,19 +26932,19 @@
         <v>88.9350252468852</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>132.0800930405434</v>
       </c>
       <c r="M2" t="n">
-        <v>22.1195982045418</v>
+        <v>22.11959820454177</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.9350252468852</v>
+        <v>88.93502524688523</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806997</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>364.9110552725996</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>88.9350252468852</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>68.39702598806991</v>
+        <v>68.39702598806997</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,28 +28111,28 @@
         <v>218.4500239600112</v>
       </c>
       <c r="J11" t="n">
-        <v>138.7119396886106</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>65.06159634431415</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L11" t="n">
-        <v>218.4500239600112</v>
+        <v>59.05666598861453</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>214.7658150514811</v>
       </c>
       <c r="N11" t="n">
-        <v>198.3747386547837</v>
+        <v>207.442766557527</v>
       </c>
       <c r="O11" t="n">
-        <v>217.6878698049957</v>
+        <v>149.2908438169257</v>
       </c>
       <c r="P11" t="n">
         <v>161.3945396537014</v>
       </c>
       <c r="Q11" t="n">
-        <v>168.6434343361249</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="R11" t="n">
         <v>218.4500239600112</v>
@@ -28172,7 +28172,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>146.1124235746456</v>
+        <v>198.3412804185601</v>
       </c>
       <c r="E12" t="n">
         <v>156.0334337071738</v>
@@ -28187,28 +28187,28 @@
         <v>108.160635135932</v>
       </c>
       <c r="I12" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J12" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K12" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065686</v>
       </c>
       <c r="L12" t="n">
-        <v>83.34002595346595</v>
+        <v>83.34002595346593</v>
       </c>
       <c r="M12" t="n">
-        <v>78.19029710175252</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N12" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955187</v>
       </c>
       <c r="O12" t="n">
-        <v>82.32375190725115</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P12" t="n">
-        <v>137.3410665368243</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q12" t="n">
         <v>106.0581031398714</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>180.0836914906838</v>
+        <v>183.4925457230556</v>
       </c>
       <c r="C13" t="n">
         <v>167.3365529312023</v>
@@ -28254,16 +28254,16 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E13" t="n">
-        <v>146.9746241731992</v>
+        <v>215.3716501612691</v>
       </c>
       <c r="F13" t="n">
-        <v>146.1590214098045</v>
+        <v>214.5560473978745</v>
       </c>
       <c r="G13" t="n">
-        <v>167.689771139254</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="H13" t="n">
-        <v>218.4500239600112</v>
+        <v>159.857510195687</v>
       </c>
       <c r="I13" t="n">
         <v>147.7494808688102</v>
@@ -28281,19 +28281,19 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N13" t="n">
-        <v>93.91583427681483</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O13" t="n">
-        <v>175.148814504079</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P13" t="n">
-        <v>120.0479589065026</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q13" t="n">
         <v>130.9853613927381</v>
       </c>
       <c r="R13" t="n">
-        <v>218.4500239600112</v>
+        <v>164.4066131828346</v>
       </c>
       <c r="S13" t="n">
         <v>218.4500239600112</v>
@@ -28348,25 +28348,25 @@
         <v>218.4500239600112</v>
       </c>
       <c r="J14" t="n">
-        <v>207.1089656766806</v>
+        <v>57.40474696951343</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>218.4500239600112</v>
-      </c>
-      <c r="L14" t="n">
-        <v>159.5754064333817</v>
       </c>
       <c r="M14" t="n">
         <v>146.3687890634112</v>
       </c>
       <c r="N14" t="n">
-        <v>146.9162300117957</v>
+        <v>144.19328690304</v>
       </c>
       <c r="O14" t="n">
-        <v>149.2908438169257</v>
+        <v>187.74322794723</v>
       </c>
       <c r="P14" t="n">
-        <v>161.3945396537014</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="Q14" t="n">
         <v>218.4500239600112</v>
@@ -28375,7 +28375,7 @@
         <v>218.4500239600112</v>
       </c>
       <c r="S14" t="n">
-        <v>218.4500239600112</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T14" t="n">
         <v>218.4500239600112</v>
@@ -28424,28 +28424,28 @@
         <v>108.160635135932</v>
       </c>
       <c r="I15" t="n">
-        <v>141.057109663771</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>95.90842290065686</v>
       </c>
       <c r="L15" t="n">
-        <v>56.77130821936404</v>
+        <v>83.34002595346593</v>
       </c>
       <c r="M15" t="n">
-        <v>78.19029710175252</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N15" t="n">
-        <v>66.06942948955188</v>
+        <v>118.2982863334664</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q15" t="n">
         <v>106.0581031398714</v>
@@ -28482,10 +28482,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>180.0836914906838</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="C16" t="n">
-        <v>167.3365529312023</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="D16" t="n">
         <v>149.0055665145194</v>
@@ -28509,22 +28509,22 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>135.6590620128341</v>
       </c>
       <c r="L16" t="n">
         <v>101.8051034503207</v>
       </c>
       <c r="M16" t="n">
-        <v>172.527318357923</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N16" t="n">
-        <v>148.0849413299439</v>
+        <v>162.3128602648848</v>
       </c>
       <c r="O16" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P16" t="n">
-        <v>178.5147763948743</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q16" t="n">
         <v>130.9853613927381</v>
@@ -28582,16 +28582,16 @@
         <v>350.5301170005546</v>
       </c>
       <c r="I17" t="n">
-        <v>188.0507309546109</v>
+        <v>256.4477569426809</v>
       </c>
       <c r="J17" t="n">
         <v>138.7119396886106</v>
       </c>
       <c r="K17" t="n">
-        <v>184.6118261282595</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L17" t="n">
-        <v>159.5754064333817</v>
+        <v>186.2637451473613</v>
       </c>
       <c r="M17" t="n">
         <v>146.3687890634112</v>
@@ -28606,16 +28606,16 @@
         <v>161.3945396537014</v>
       </c>
       <c r="Q17" t="n">
-        <v>237.0404603241948</v>
+        <v>168.6434343361249</v>
       </c>
       <c r="R17" t="n">
-        <v>250.6108307898695</v>
+        <v>182.2138048017995</v>
       </c>
       <c r="S17" t="n">
         <v>195.7140436393247</v>
       </c>
       <c r="T17" t="n">
-        <v>221.0151182874286</v>
+        <v>289.4121442754986</v>
       </c>
       <c r="U17" t="n">
         <v>319.8391528055694</v>
@@ -28661,25 +28661,25 @@
         <v>108.160635135932</v>
       </c>
       <c r="I18" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J18" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K18" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065686</v>
       </c>
       <c r="L18" t="n">
-        <v>83.34002595346595</v>
+        <v>83.34002595346593</v>
       </c>
       <c r="M18" t="n">
-        <v>78.19029710175252</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N18" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955187</v>
       </c>
       <c r="O18" t="n">
-        <v>82.32375190725115</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P18" t="n">
         <v>85.1122096929098</v>
@@ -28755,10 +28755,10 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N19" t="n">
-        <v>93.91583427681483</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O19" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P19" t="n">
         <v>110.1177504068044</v>
@@ -28819,10 +28819,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="I20" t="n">
-        <v>188.0507309546109</v>
+        <v>214.7390696685905</v>
       </c>
       <c r="J20" t="n">
-        <v>207.1089656766806</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K20" t="n">
         <v>157.9234874142799</v>
@@ -28849,10 +28849,10 @@
         <v>182.2138048017995</v>
       </c>
       <c r="S20" t="n">
-        <v>222.4023823533043</v>
+        <v>264.1110696273947</v>
       </c>
       <c r="T20" t="n">
-        <v>289.4121442754985</v>
+        <v>289.4121442754986</v>
       </c>
       <c r="U20" t="n">
         <v>319.8391528055694</v>
@@ -28898,25 +28898,25 @@
         <v>108.160635135932</v>
       </c>
       <c r="I21" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J21" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K21" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065686</v>
       </c>
       <c r="L21" t="n">
-        <v>83.34002595346595</v>
+        <v>83.34002595346593</v>
       </c>
       <c r="M21" t="n">
-        <v>78.19029710175252</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N21" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955187</v>
       </c>
       <c r="O21" t="n">
-        <v>82.32375190725115</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P21" t="n">
         <v>85.1122096929098</v>
@@ -28992,10 +28992,10 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N22" t="n">
-        <v>93.91583427681483</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O22" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P22" t="n">
         <v>110.1177504068044</v>
@@ -29053,10 +29053,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="H23" t="n">
-        <v>350.5301170005546</v>
+        <v>333.5818414060377</v>
       </c>
       <c r="I23" t="n">
-        <v>214.7390696685904</v>
+        <v>188.0507309546109</v>
       </c>
       <c r="J23" t="n">
         <v>138.7119396886106</v>
@@ -29074,28 +29074,28 @@
         <v>144.19328690304</v>
       </c>
       <c r="O23" t="n">
-        <v>149.2908438169257</v>
+        <v>214.9243536034575</v>
       </c>
       <c r="P23" t="n">
-        <v>229.7915656417713</v>
+        <v>161.3945396537014</v>
       </c>
       <c r="Q23" t="n">
         <v>168.6434343361249</v>
       </c>
       <c r="R23" t="n">
-        <v>182.2138048017995</v>
+        <v>250.6108307898695</v>
       </c>
       <c r="S23" t="n">
-        <v>195.7140436393247</v>
+        <v>264.1110696273947</v>
       </c>
       <c r="T23" t="n">
-        <v>289.4121442754985</v>
+        <v>289.4121442754986</v>
       </c>
       <c r="U23" t="n">
-        <v>319.8391528055694</v>
+        <v>251.4421268174995</v>
       </c>
       <c r="V23" t="n">
-        <v>350.5301170005546</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
         <v>350.5301170005546</v>
@@ -29135,25 +29135,25 @@
         <v>108.160635135932</v>
       </c>
       <c r="I24" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J24" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K24" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065686</v>
       </c>
       <c r="L24" t="n">
-        <v>83.34002595346595</v>
+        <v>83.34002595346593</v>
       </c>
       <c r="M24" t="n">
-        <v>78.19029710175252</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N24" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955187</v>
       </c>
       <c r="O24" t="n">
-        <v>82.32375190725115</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P24" t="n">
         <v>85.1122096929098</v>
@@ -29229,10 +29229,10 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N25" t="n">
-        <v>93.91583427681483</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O25" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P25" t="n">
         <v>110.1177504068044</v>
@@ -29311,19 +29311,19 @@
         <v>221.0151182874286</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="P26" t="n">
-        <v>219.5944798764717</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="Q26" t="n">
-        <v>221.0151182874286</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>221.0151182874286</v>
+        <v>182.484997125121</v>
       </c>
       <c r="S26" t="n">
-        <v>221.0151182874286</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T26" t="n">
         <v>221.0151182874286</v>
@@ -29372,16 +29372,16 @@
         <v>108.160635135932</v>
       </c>
       <c r="I27" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J27" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K27" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065686</v>
       </c>
       <c r="L27" t="n">
-        <v>83.34002595346595</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -29390,16 +29390,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P27" t="n">
         <v>85.1122096929098</v>
       </c>
       <c r="Q27" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>171.6167436547176</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S27" t="n">
         <v>164.5345187941275</v>
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>221.0151182874286</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
         <v>167.3365529312023</v>
@@ -29460,22 +29460,22 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>199.2360873447235</v>
+        <v>193.8608610829103</v>
       </c>
       <c r="R28" t="n">
         <v>164.4066131828346</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="C29" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="D29" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="E29" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="F29" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="G29" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="H29" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="I29" t="n">
-        <v>221.0151182874286</v>
+        <v>188.0507309546109</v>
       </c>
       <c r="J29" t="n">
-        <v>221.0151182874286</v>
+        <v>36.51222603041407</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="L29" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="M29" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="N29" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="O29" t="n">
-        <v>208.3044428031211</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="P29" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="Q29" t="n">
-        <v>221.0151182874286</v>
+        <v>115.7043329139656</v>
       </c>
       <c r="R29" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="S29" t="n">
-        <v>221.0151182874286</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T29" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="U29" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="V29" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="W29" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="X29" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="Y29" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
     </row>
     <row r="30">
@@ -29609,49 +29609,49 @@
         <v>108.160635135932</v>
       </c>
       <c r="I30" t="n">
-        <v>133.2055812664113</v>
+        <v>78.29747578532815</v>
       </c>
       <c r="J30" t="n">
-        <v>101.1486090703222</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>95.90842290065689</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>83.34002595346593</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N30" t="n">
-        <v>66.06942948955188</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P30" t="n">
         <v>85.1122096929098</v>
       </c>
       <c r="Q30" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>127.2394152081628</v>
       </c>
       <c r="S30" t="n">
-        <v>164.5345187941275</v>
+        <v>208.9118472406821</v>
       </c>
       <c r="T30" t="n">
         <v>197.4218470422748</v>
       </c>
       <c r="U30" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="V30" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="W30" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="X30" t="n">
         <v>204.4616296084783</v>
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>221.0151182874286</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
         <v>167.3365529312023</v>
@@ -29685,55 +29685,55 @@
         <v>167.689771139254</v>
       </c>
       <c r="H31" t="n">
-        <v>221.0151182874286</v>
+        <v>159.857510195687</v>
       </c>
       <c r="I31" t="n">
-        <v>221.0151182874286</v>
+        <v>147.7494808688102</v>
       </c>
       <c r="J31" t="n">
         <v>109.6934180900282</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>197.2268229737052</v>
       </c>
       <c r="Q31" t="n">
-        <v>130.9853613927381</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="R31" t="n">
         <v>164.4066131828346</v>
       </c>
       <c r="S31" t="n">
-        <v>220.6592849789343</v>
+        <v>218.8751278244474</v>
       </c>
       <c r="T31" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="U31" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="V31" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="W31" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="X31" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="Y31" t="n">
         <v>218.7486738677682</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="C32" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="D32" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="E32" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="F32" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="G32" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="H32" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="I32" t="n">
-        <v>188.0507309546109</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="J32" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="K32" t="n">
-        <v>221.0151182874286</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>221.0151182874286</v>
+        <v>35.71574796332103</v>
       </c>
       <c r="M32" t="n">
-        <v>221.0151182874286</v>
+        <v>112.1827954915347</v>
       </c>
       <c r="N32" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="P32" t="n">
-        <v>122.0993607820579</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="Q32" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="R32" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="S32" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="T32" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="U32" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="V32" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="W32" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="X32" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="Y32" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
     </row>
     <row r="33">
@@ -29837,7 +29837,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>187.8835605301039</v>
       </c>
       <c r="G33" t="n">
         <v>135.7848683666891</v>
@@ -29846,25 +29846,25 @@
         <v>108.160635135932</v>
       </c>
       <c r="I33" t="n">
-        <v>133.2055812664113</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J33" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K33" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065686</v>
       </c>
       <c r="L33" t="n">
-        <v>83.34002595346595</v>
+        <v>83.34002595346593</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N33" t="n">
-        <v>66.06942948955188</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>82.32375190725115</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P33" t="n">
         <v>85.1122096929098</v>
@@ -29882,13 +29882,13 @@
         <v>197.4218470422748</v>
       </c>
       <c r="U33" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="V33" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="W33" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="X33" t="n">
         <v>204.4616296084783</v>
@@ -29916,37 +29916,37 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
-        <v>188.8746053610362</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
         <v>167.689771139254</v>
       </c>
       <c r="H34" t="n">
-        <v>221.0151182874286</v>
+        <v>159.857510195687</v>
       </c>
       <c r="I34" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="J34" t="n">
-        <v>109.6934180900282</v>
+        <v>213.5666101330011</v>
       </c>
       <c r="K34" t="n">
         <v>102.5727324697714</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q34" t="n">
         <v>130.9853613927381</v>
@@ -29958,19 +29958,19 @@
         <v>218.8751278244474</v>
       </c>
       <c r="T34" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="U34" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="V34" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="W34" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="X34" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874287</v>
       </c>
       <c r="Y34" t="n">
         <v>218.7486738677682</v>
@@ -30022,16 +30022,16 @@
         <v>243.1347164919704</v>
       </c>
       <c r="O35" t="n">
-        <v>243.1347164919704</v>
+        <v>149.2908438169257</v>
       </c>
       <c r="P35" t="n">
         <v>243.1347164919704</v>
       </c>
       <c r="Q35" t="n">
+        <v>158.776553587634</v>
+      </c>
+      <c r="R35" t="n">
         <v>243.1347164919704</v>
-      </c>
-      <c r="R35" t="n">
-        <v>139.6411737821466</v>
       </c>
       <c r="S35" t="n">
         <v>243.1347164919704</v>
@@ -30083,31 +30083,31 @@
         <v>108.160635135932</v>
       </c>
       <c r="I36" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>95.90842290065686</v>
       </c>
       <c r="L36" t="n">
-        <v>83.34002595346595</v>
+        <v>83.34002595346593</v>
       </c>
       <c r="M36" t="n">
-        <v>78.19029710175252</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N36" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955187</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q36" t="n">
-        <v>106.0581031398714</v>
+        <v>113.0519101575529</v>
       </c>
       <c r="R36" t="n">
         <v>127.2394152081628</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>180.0836914906838</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="C37" t="n">
         <v>167.3365529312023</v>
@@ -30171,16 +30171,16 @@
         <v>102.5727324697714</v>
       </c>
       <c r="L37" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>201.7388524323766</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>93.91583427681483</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>106.7517885160091</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>110.1177504068044</v>
@@ -30195,7 +30195,7 @@
         <v>218.8751278244474</v>
       </c>
       <c r="T37" t="n">
-        <v>227.4786990669493</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="U37" t="n">
         <v>243.1347164919704</v>
@@ -30207,7 +30207,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="X37" t="n">
-        <v>226.1403599323093</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="Y37" t="n">
         <v>218.7486738677682</v>
@@ -30259,10 +30259,10 @@
         <v>243.1347164919704</v>
       </c>
       <c r="O38" t="n">
+        <v>44.70343242718059</v>
+      </c>
+      <c r="P38" t="n">
         <v>243.1347164919704</v>
-      </c>
-      <c r="P38" t="n">
-        <v>122.8030593200451</v>
       </c>
       <c r="Q38" t="n">
         <v>243.1347164919704</v>
@@ -30320,28 +30320,28 @@
         <v>108.160635135932</v>
       </c>
       <c r="I39" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065686</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>83.34002595346593</v>
       </c>
       <c r="M39" t="n">
-        <v>78.19029710175252</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>66.06942948955187</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P39" t="n">
-        <v>85.1122096929098</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>106.0581031398714</v>
@@ -30402,7 +30402,7 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J40" t="n">
-        <v>109.6934180900282</v>
+        <v>207.3019781525516</v>
       </c>
       <c r="K40" t="n">
         <v>102.5727324697714</v>
@@ -30414,13 +30414,13 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N40" t="n">
-        <v>93.91583427681483</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O40" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P40" t="n">
-        <v>207.7263104693279</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q40" t="n">
         <v>130.9853613927381</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="C41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="D41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="E41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="F41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="G41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="H41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="I41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="J41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="K41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="L41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="M41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="N41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="O41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="P41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="Q41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="R41" t="n">
-        <v>234.0581932883669</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="S41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="T41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="U41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="V41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="W41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="X41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="Y41" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
     </row>
     <row r="42">
@@ -30557,31 +30557,31 @@
         <v>108.160635135932</v>
       </c>
       <c r="I42" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>7.099230372718612</v>
       </c>
       <c r="L42" t="n">
-        <v>83.34002595346595</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N42" t="n">
-        <v>73.06323650723337</v>
+        <v>66.06942948955187</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>85.1122096929098</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R42" t="n">
         <v>127.2394152081628</v>
@@ -30593,13 +30593,13 @@
         <v>197.4218470422748</v>
       </c>
       <c r="U42" t="n">
-        <v>224.641496683099</v>
+        <v>231.6353037007805</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="X42" t="n">
         <v>204.4616296084783</v>
@@ -30621,7 +30621,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
-        <v>149.0055665145194</v>
+        <v>154.174824664665</v>
       </c>
       <c r="E43" t="n">
         <v>146.9746241731992</v>
@@ -30630,7 +30630,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>167.689771139254</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="H43" t="n">
         <v>159.857510195687</v>
@@ -30639,25 +30639,25 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J43" t="n">
-        <v>207.3019781525517</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K43" t="n">
         <v>102.5727324697714</v>
       </c>
       <c r="L43" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>93.91583427681483</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>106.7517885160091</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>130.9853613927381</v>
@@ -30672,16 +30672,16 @@
         <v>227.4786990669493</v>
       </c>
       <c r="U43" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="V43" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="W43" t="n">
-        <v>243.1347164919704</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="X43" t="n">
-        <v>226.1403599323093</v>
+        <v>243.1347164919705</v>
       </c>
       <c r="Y43" t="n">
         <v>218.7486738677682</v>
@@ -30733,16 +30733,16 @@
         <v>243.1347164919704</v>
       </c>
       <c r="O44" t="n">
-        <v>243.1347164919704</v>
+        <v>198.2928520134555</v>
       </c>
       <c r="P44" t="n">
-        <v>243.1347164919704</v>
+        <v>109.4309678864489</v>
       </c>
       <c r="Q44" t="n">
         <v>243.1347164919704</v>
       </c>
       <c r="R44" t="n">
-        <v>121.0254922259285</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="S44" t="n">
         <v>243.1347164919704</v>
@@ -30794,25 +30794,25 @@
         <v>108.160635135932</v>
       </c>
       <c r="I45" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J45" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>95.90842290065686</v>
       </c>
       <c r="L45" t="n">
-        <v>83.34002595346595</v>
+        <v>83.34002595346593</v>
       </c>
       <c r="M45" t="n">
-        <v>78.19029710175252</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N45" t="n">
-        <v>66.06942948955188</v>
+        <v>66.06942948955187</v>
       </c>
       <c r="O45" t="n">
-        <v>82.32375190725115</v>
+        <v>82.32375190725114</v>
       </c>
       <c r="P45" t="n">
         <v>85.1122096929098</v>
@@ -30842,7 +30842,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>203.671151418586</v>
+        <v>210.6649584362675</v>
       </c>
     </row>
     <row r="46">
@@ -30879,10 +30879,10 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K46" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30903,10 +30903,10 @@
         <v>164.4066131828346</v>
       </c>
       <c r="S46" t="n">
-        <v>218.8751278244474</v>
+        <v>240.6855243262029</v>
       </c>
       <c r="T46" t="n">
-        <v>243.1347164919704</v>
+        <v>227.4786990669493</v>
       </c>
       <c r="U46" t="n">
         <v>243.1347164919704</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.4454594880620742</v>
       </c>
       <c r="H11" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115719</v>
       </c>
       <c r="I11" t="n">
         <v>17.17357691351313</v>
       </c>
       <c r="J11" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490851</v>
       </c>
       <c r="K11" t="n">
-        <v>56.66411735457611</v>
+        <v>56.66411735457613</v>
       </c>
       <c r="L11" t="n">
-        <v>70.29684816235581</v>
+        <v>70.29684816235584</v>
       </c>
       <c r="M11" t="n">
-        <v>78.21878833317973</v>
+        <v>78.21878833317976</v>
       </c>
       <c r="N11" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363614</v>
       </c>
       <c r="O11" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921887</v>
       </c>
       <c r="P11" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768641</v>
       </c>
       <c r="Q11" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146336</v>
       </c>
       <c r="R11" t="n">
-        <v>27.98209456697929</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S11" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T11" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03563675904496592</v>
+        <v>0.03563675904496594</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,43 +31832,43 @@
         <v>0.2383418383532128</v>
       </c>
       <c r="H12" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200767</v>
       </c>
       <c r="I12" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143514</v>
       </c>
       <c r="J12" t="n">
-        <v>22.51807692967788</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K12" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934315</v>
       </c>
       <c r="L12" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191142</v>
       </c>
       <c r="M12" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221537</v>
       </c>
       <c r="N12" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169811</v>
       </c>
       <c r="O12" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608218</v>
       </c>
       <c r="P12" t="n">
-        <v>45.51283753606219</v>
+        <v>45.5128375360622</v>
       </c>
       <c r="Q12" t="n">
-        <v>30.42412659399958</v>
+        <v>30.42412659399959</v>
       </c>
       <c r="R12" t="n">
-        <v>14.79810115670211</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S12" t="n">
-        <v>4.427095111516909</v>
+        <v>4.427095111516911</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938707</v>
       </c>
       <c r="U12" t="n">
         <v>0.01568038410218506</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H13" t="n">
         <v>1.776561813229859</v>
       </c>
       <c r="I13" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593428</v>
       </c>
       <c r="J13" t="n">
         <v>14.12711781338303</v>
       </c>
       <c r="K13" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L13" t="n">
-        <v>29.7074559238866</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M13" t="n">
-        <v>31.32234697906179</v>
+        <v>31.3223469790618</v>
       </c>
       <c r="N13" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678755</v>
       </c>
       <c r="O13" t="n">
-        <v>28.24333647453766</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P13" t="n">
-        <v>24.16705354111453</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R13" t="n">
-        <v>8.984534486947723</v>
+        <v>8.984534486947727</v>
       </c>
       <c r="S13" t="n">
-        <v>3.482279136975087</v>
+        <v>3.482279136975089</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.853766924558316</v>
       </c>
       <c r="U13" t="n">
         <v>0.01089915222840405</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.4454594880620742</v>
       </c>
       <c r="H14" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115719</v>
       </c>
       <c r="I14" t="n">
         <v>17.17357691351313</v>
       </c>
       <c r="J14" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490851</v>
       </c>
       <c r="K14" t="n">
-        <v>56.66411735457611</v>
+        <v>56.66411735457613</v>
       </c>
       <c r="L14" t="n">
-        <v>70.29684816235581</v>
+        <v>70.29684816235584</v>
       </c>
       <c r="M14" t="n">
-        <v>78.21878833317973</v>
+        <v>78.21878833317976</v>
       </c>
       <c r="N14" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363614</v>
       </c>
       <c r="O14" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921887</v>
       </c>
       <c r="P14" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768641</v>
       </c>
       <c r="Q14" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146336</v>
       </c>
       <c r="R14" t="n">
-        <v>27.98209456697929</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S14" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T14" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03563675904496592</v>
+        <v>0.03563675904496594</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,43 +32069,43 @@
         <v>0.2383418383532128</v>
       </c>
       <c r="H15" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200767</v>
       </c>
       <c r="I15" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143514</v>
       </c>
       <c r="J15" t="n">
-        <v>22.51807692967788</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K15" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934315</v>
       </c>
       <c r="L15" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191142</v>
       </c>
       <c r="M15" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221537</v>
       </c>
       <c r="N15" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169811</v>
       </c>
       <c r="O15" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608218</v>
       </c>
       <c r="P15" t="n">
-        <v>45.51283753606219</v>
+        <v>45.5128375360622</v>
       </c>
       <c r="Q15" t="n">
-        <v>30.42412659399958</v>
+        <v>30.42412659399959</v>
       </c>
       <c r="R15" t="n">
-        <v>14.79810115670211</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S15" t="n">
-        <v>4.427095111516909</v>
+        <v>4.427095111516911</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938707</v>
       </c>
       <c r="U15" t="n">
         <v>0.01568038410218506</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H16" t="n">
         <v>1.776561813229859</v>
       </c>
       <c r="I16" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593428</v>
       </c>
       <c r="J16" t="n">
         <v>14.12711781338303</v>
       </c>
       <c r="K16" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L16" t="n">
-        <v>29.7074559238866</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M16" t="n">
-        <v>31.32234697906179</v>
+        <v>31.3223469790618</v>
       </c>
       <c r="N16" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678755</v>
       </c>
       <c r="O16" t="n">
-        <v>28.24333647453766</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P16" t="n">
-        <v>24.16705354111453</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R16" t="n">
-        <v>8.984534486947723</v>
+        <v>8.984534486947727</v>
       </c>
       <c r="S16" t="n">
-        <v>3.482279136975087</v>
+        <v>3.482279136975089</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.853766924558316</v>
       </c>
       <c r="U16" t="n">
         <v>0.01089915222840405</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.4454594880620742</v>
       </c>
       <c r="H17" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115719</v>
       </c>
       <c r="I17" t="n">
         <v>17.17357691351313</v>
       </c>
       <c r="J17" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490851</v>
       </c>
       <c r="K17" t="n">
-        <v>56.66411735457611</v>
+        <v>56.66411735457613</v>
       </c>
       <c r="L17" t="n">
-        <v>70.29684816235581</v>
+        <v>70.29684816235584</v>
       </c>
       <c r="M17" t="n">
-        <v>78.21878833317973</v>
+        <v>78.21878833317976</v>
       </c>
       <c r="N17" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363614</v>
       </c>
       <c r="O17" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921887</v>
       </c>
       <c r="P17" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768641</v>
       </c>
       <c r="Q17" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146336</v>
       </c>
       <c r="R17" t="n">
-        <v>27.98209456697929</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S17" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T17" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03563675904496592</v>
+        <v>0.03563675904496594</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,43 +32306,43 @@
         <v>0.2383418383532128</v>
       </c>
       <c r="H18" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200767</v>
       </c>
       <c r="I18" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143514</v>
       </c>
       <c r="J18" t="n">
-        <v>22.51807692967788</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K18" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934315</v>
       </c>
       <c r="L18" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191142</v>
       </c>
       <c r="M18" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221537</v>
       </c>
       <c r="N18" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169811</v>
       </c>
       <c r="O18" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608218</v>
       </c>
       <c r="P18" t="n">
-        <v>45.51283753606219</v>
+        <v>45.5128375360622</v>
       </c>
       <c r="Q18" t="n">
-        <v>30.42412659399958</v>
+        <v>30.42412659399959</v>
       </c>
       <c r="R18" t="n">
-        <v>14.79810115670211</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S18" t="n">
-        <v>4.427095111516909</v>
+        <v>4.427095111516911</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938707</v>
       </c>
       <c r="U18" t="n">
         <v>0.01568038410218506</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H19" t="n">
         <v>1.776561813229859</v>
       </c>
       <c r="I19" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593428</v>
       </c>
       <c r="J19" t="n">
         <v>14.12711781338303</v>
       </c>
       <c r="K19" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L19" t="n">
-        <v>29.7074559238866</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M19" t="n">
-        <v>31.32234697906179</v>
+        <v>31.3223469790618</v>
       </c>
       <c r="N19" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678755</v>
       </c>
       <c r="O19" t="n">
-        <v>28.24333647453766</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P19" t="n">
-        <v>24.16705354111453</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R19" t="n">
-        <v>8.984534486947723</v>
+        <v>8.984534486947727</v>
       </c>
       <c r="S19" t="n">
-        <v>3.482279136975087</v>
+        <v>3.482279136975089</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.853766924558316</v>
       </c>
       <c r="U19" t="n">
         <v>0.01089915222840405</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.4454594880620742</v>
       </c>
       <c r="H20" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115719</v>
       </c>
       <c r="I20" t="n">
         <v>17.17357691351313</v>
       </c>
       <c r="J20" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490851</v>
       </c>
       <c r="K20" t="n">
-        <v>56.66411735457611</v>
+        <v>56.66411735457613</v>
       </c>
       <c r="L20" t="n">
-        <v>70.29684816235581</v>
+        <v>70.29684816235584</v>
       </c>
       <c r="M20" t="n">
-        <v>78.21878833317973</v>
+        <v>78.21878833317976</v>
       </c>
       <c r="N20" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363614</v>
       </c>
       <c r="O20" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921887</v>
       </c>
       <c r="P20" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768641</v>
       </c>
       <c r="Q20" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146336</v>
       </c>
       <c r="R20" t="n">
-        <v>27.98209456697929</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S20" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T20" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03563675904496592</v>
+        <v>0.03563675904496594</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,43 +32543,43 @@
         <v>0.2383418383532128</v>
       </c>
       <c r="H21" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200767</v>
       </c>
       <c r="I21" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143514</v>
       </c>
       <c r="J21" t="n">
-        <v>22.51807692967788</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K21" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934315</v>
       </c>
       <c r="L21" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191142</v>
       </c>
       <c r="M21" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221537</v>
       </c>
       <c r="N21" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169811</v>
       </c>
       <c r="O21" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608218</v>
       </c>
       <c r="P21" t="n">
-        <v>45.51283753606219</v>
+        <v>45.5128375360622</v>
       </c>
       <c r="Q21" t="n">
-        <v>30.42412659399958</v>
+        <v>30.42412659399959</v>
       </c>
       <c r="R21" t="n">
-        <v>14.79810115670211</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S21" t="n">
-        <v>4.427095111516909</v>
+        <v>4.427095111516911</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938707</v>
       </c>
       <c r="U21" t="n">
         <v>0.01568038410218506</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H22" t="n">
         <v>1.776561813229859</v>
       </c>
       <c r="I22" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593428</v>
       </c>
       <c r="J22" t="n">
         <v>14.12711781338303</v>
       </c>
       <c r="K22" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L22" t="n">
-        <v>29.7074559238866</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M22" t="n">
-        <v>31.32234697906179</v>
+        <v>31.3223469790618</v>
       </c>
       <c r="N22" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678755</v>
       </c>
       <c r="O22" t="n">
-        <v>28.24333647453766</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P22" t="n">
-        <v>24.16705354111453</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R22" t="n">
-        <v>8.984534486947723</v>
+        <v>8.984534486947727</v>
       </c>
       <c r="S22" t="n">
-        <v>3.482279136975087</v>
+        <v>3.482279136975089</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.853766924558316</v>
       </c>
       <c r="U22" t="n">
         <v>0.01089915222840405</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.4454594880620742</v>
       </c>
       <c r="H23" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115719</v>
       </c>
       <c r="I23" t="n">
         <v>17.17357691351313</v>
       </c>
       <c r="J23" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490851</v>
       </c>
       <c r="K23" t="n">
-        <v>56.66411735457611</v>
+        <v>56.66411735457613</v>
       </c>
       <c r="L23" t="n">
-        <v>70.29684816235581</v>
+        <v>70.29684816235584</v>
       </c>
       <c r="M23" t="n">
-        <v>78.21878833317973</v>
+        <v>78.21878833317976</v>
       </c>
       <c r="N23" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363614</v>
       </c>
       <c r="O23" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921887</v>
       </c>
       <c r="P23" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768641</v>
       </c>
       <c r="Q23" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146336</v>
       </c>
       <c r="R23" t="n">
-        <v>27.98209456697929</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S23" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T23" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03563675904496592</v>
+        <v>0.03563675904496594</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,43 +32780,43 @@
         <v>0.2383418383532128</v>
       </c>
       <c r="H24" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200767</v>
       </c>
       <c r="I24" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143514</v>
       </c>
       <c r="J24" t="n">
-        <v>22.51807692967788</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K24" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934315</v>
       </c>
       <c r="L24" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191142</v>
       </c>
       <c r="M24" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221537</v>
       </c>
       <c r="N24" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169811</v>
       </c>
       <c r="O24" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608218</v>
       </c>
       <c r="P24" t="n">
-        <v>45.51283753606219</v>
+        <v>45.5128375360622</v>
       </c>
       <c r="Q24" t="n">
-        <v>30.42412659399958</v>
+        <v>30.42412659399959</v>
       </c>
       <c r="R24" t="n">
-        <v>14.79810115670211</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S24" t="n">
-        <v>4.427095111516909</v>
+        <v>4.427095111516911</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938707</v>
       </c>
       <c r="U24" t="n">
         <v>0.01568038410218506</v>
@@ -32856,46 +32856,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H25" t="n">
         <v>1.776561813229859</v>
       </c>
       <c r="I25" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593428</v>
       </c>
       <c r="J25" t="n">
         <v>14.12711781338303</v>
       </c>
       <c r="K25" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L25" t="n">
-        <v>29.7074559238866</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M25" t="n">
-        <v>31.32234697906179</v>
+        <v>31.3223469790618</v>
       </c>
       <c r="N25" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678755</v>
       </c>
       <c r="O25" t="n">
-        <v>28.24333647453766</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P25" t="n">
-        <v>24.16705354111453</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R25" t="n">
-        <v>8.984534486947723</v>
+        <v>8.984534486947727</v>
       </c>
       <c r="S25" t="n">
-        <v>3.482279136975087</v>
+        <v>3.482279136975089</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.853766924558316</v>
       </c>
       <c r="U25" t="n">
         <v>0.01089915222840405</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.4454594880620742</v>
       </c>
       <c r="H26" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115719</v>
       </c>
       <c r="I26" t="n">
         <v>17.17357691351313</v>
       </c>
       <c r="J26" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490851</v>
       </c>
       <c r="K26" t="n">
-        <v>56.66411735457611</v>
+        <v>56.66411735457613</v>
       </c>
       <c r="L26" t="n">
-        <v>70.29684816235581</v>
+        <v>70.29684816235584</v>
       </c>
       <c r="M26" t="n">
-        <v>78.21878833317973</v>
+        <v>78.21878833317976</v>
       </c>
       <c r="N26" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363614</v>
       </c>
       <c r="O26" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921887</v>
       </c>
       <c r="P26" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768641</v>
       </c>
       <c r="Q26" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146336</v>
       </c>
       <c r="R26" t="n">
-        <v>27.98209456697929</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S26" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T26" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03563675904496592</v>
+        <v>0.03563675904496594</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,43 +33017,43 @@
         <v>0.2383418383532128</v>
       </c>
       <c r="H27" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200767</v>
       </c>
       <c r="I27" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143514</v>
       </c>
       <c r="J27" t="n">
-        <v>22.51807692967788</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K27" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934315</v>
       </c>
       <c r="L27" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191142</v>
       </c>
       <c r="M27" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221537</v>
       </c>
       <c r="N27" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169811</v>
       </c>
       <c r="O27" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608218</v>
       </c>
       <c r="P27" t="n">
-        <v>45.51283753606219</v>
+        <v>45.5128375360622</v>
       </c>
       <c r="Q27" t="n">
-        <v>30.42412659399958</v>
+        <v>30.42412659399959</v>
       </c>
       <c r="R27" t="n">
-        <v>14.79810115670211</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S27" t="n">
-        <v>4.427095111516909</v>
+        <v>4.427095111516911</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938707</v>
       </c>
       <c r="U27" t="n">
         <v>0.01568038410218506</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H28" t="n">
         <v>1.776561813229859</v>
       </c>
       <c r="I28" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593428</v>
       </c>
       <c r="J28" t="n">
         <v>14.12711781338303</v>
       </c>
       <c r="K28" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L28" t="n">
-        <v>29.7074559238866</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M28" t="n">
-        <v>31.32234697906179</v>
+        <v>31.3223469790618</v>
       </c>
       <c r="N28" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678755</v>
       </c>
       <c r="O28" t="n">
-        <v>28.24333647453766</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P28" t="n">
-        <v>24.16705354111453</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q28" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R28" t="n">
-        <v>8.984534486947723</v>
+        <v>8.984534486947727</v>
       </c>
       <c r="S28" t="n">
-        <v>3.482279136975087</v>
+        <v>3.482279136975089</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.853766924558316</v>
       </c>
       <c r="U28" t="n">
         <v>0.01089915222840405</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.4454594880620742</v>
       </c>
       <c r="H29" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115719</v>
       </c>
       <c r="I29" t="n">
         <v>17.17357691351313</v>
       </c>
       <c r="J29" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490851</v>
       </c>
       <c r="K29" t="n">
-        <v>56.66411735457611</v>
+        <v>56.66411735457613</v>
       </c>
       <c r="L29" t="n">
-        <v>70.29684816235581</v>
+        <v>70.29684816235584</v>
       </c>
       <c r="M29" t="n">
-        <v>78.21878833317973</v>
+        <v>78.21878833317976</v>
       </c>
       <c r="N29" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363614</v>
       </c>
       <c r="O29" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921887</v>
       </c>
       <c r="P29" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768641</v>
       </c>
       <c r="Q29" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146336</v>
       </c>
       <c r="R29" t="n">
-        <v>27.98209456697929</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S29" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T29" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03563675904496592</v>
+        <v>0.03563675904496594</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,43 +33254,43 @@
         <v>0.2383418383532128</v>
       </c>
       <c r="H30" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200767</v>
       </c>
       <c r="I30" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143514</v>
       </c>
       <c r="J30" t="n">
-        <v>22.51807692967788</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K30" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934315</v>
       </c>
       <c r="L30" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191142</v>
       </c>
       <c r="M30" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221537</v>
       </c>
       <c r="N30" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169811</v>
       </c>
       <c r="O30" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608218</v>
       </c>
       <c r="P30" t="n">
-        <v>45.51283753606219</v>
+        <v>45.5128375360622</v>
       </c>
       <c r="Q30" t="n">
-        <v>30.42412659399958</v>
+        <v>30.42412659399959</v>
       </c>
       <c r="R30" t="n">
-        <v>14.79810115670211</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S30" t="n">
-        <v>4.427095111516909</v>
+        <v>4.427095111516911</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938707</v>
       </c>
       <c r="U30" t="n">
         <v>0.01568038410218506</v>
@@ -33330,46 +33330,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H31" t="n">
         <v>1.776561813229859</v>
       </c>
       <c r="I31" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593428</v>
       </c>
       <c r="J31" t="n">
         <v>14.12711781338303</v>
       </c>
       <c r="K31" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L31" t="n">
-        <v>29.7074559238866</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M31" t="n">
-        <v>31.32234697906179</v>
+        <v>31.3223469790618</v>
       </c>
       <c r="N31" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678755</v>
       </c>
       <c r="O31" t="n">
-        <v>28.24333647453766</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P31" t="n">
-        <v>24.16705354111453</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R31" t="n">
-        <v>8.984534486947723</v>
+        <v>8.984534486947727</v>
       </c>
       <c r="S31" t="n">
-        <v>3.482279136975087</v>
+        <v>3.482279136975089</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.853766924558316</v>
       </c>
       <c r="U31" t="n">
         <v>0.01089915222840405</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.4454594880620742</v>
       </c>
       <c r="H32" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115719</v>
       </c>
       <c r="I32" t="n">
         <v>17.17357691351313</v>
       </c>
       <c r="J32" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490851</v>
       </c>
       <c r="K32" t="n">
-        <v>56.66411735457611</v>
+        <v>56.66411735457613</v>
       </c>
       <c r="L32" t="n">
-        <v>70.29684816235581</v>
+        <v>70.29684816235584</v>
       </c>
       <c r="M32" t="n">
-        <v>78.21878833317973</v>
+        <v>78.21878833317976</v>
       </c>
       <c r="N32" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363614</v>
       </c>
       <c r="O32" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921887</v>
       </c>
       <c r="P32" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768641</v>
       </c>
       <c r="Q32" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146336</v>
       </c>
       <c r="R32" t="n">
-        <v>27.98209456697929</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S32" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T32" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03563675904496592</v>
+        <v>0.03563675904496594</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,43 +33491,43 @@
         <v>0.2383418383532128</v>
       </c>
       <c r="H33" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200767</v>
       </c>
       <c r="I33" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143514</v>
       </c>
       <c r="J33" t="n">
-        <v>22.51807692967788</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K33" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934315</v>
       </c>
       <c r="L33" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191142</v>
       </c>
       <c r="M33" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221537</v>
       </c>
       <c r="N33" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169811</v>
       </c>
       <c r="O33" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608218</v>
       </c>
       <c r="P33" t="n">
-        <v>45.51283753606219</v>
+        <v>45.5128375360622</v>
       </c>
       <c r="Q33" t="n">
-        <v>30.42412659399958</v>
+        <v>30.42412659399959</v>
       </c>
       <c r="R33" t="n">
-        <v>14.79810115670211</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S33" t="n">
-        <v>4.427095111516909</v>
+        <v>4.427095111516911</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938707</v>
       </c>
       <c r="U33" t="n">
         <v>0.01568038410218506</v>
@@ -33567,46 +33567,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H34" t="n">
         <v>1.776561813229859</v>
       </c>
       <c r="I34" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593428</v>
       </c>
       <c r="J34" t="n">
         <v>14.12711781338303</v>
       </c>
       <c r="K34" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L34" t="n">
-        <v>29.7074559238866</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M34" t="n">
-        <v>31.32234697906179</v>
+        <v>31.3223469790618</v>
       </c>
       <c r="N34" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678755</v>
       </c>
       <c r="O34" t="n">
-        <v>28.24333647453766</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P34" t="n">
-        <v>24.16705354111453</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R34" t="n">
-        <v>8.984534486947723</v>
+        <v>8.984534486947727</v>
       </c>
       <c r="S34" t="n">
-        <v>3.482279136975087</v>
+        <v>3.482279136975089</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.853766924558316</v>
       </c>
       <c r="U34" t="n">
         <v>0.01089915222840405</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.4454594880620742</v>
       </c>
       <c r="H35" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115719</v>
       </c>
       <c r="I35" t="n">
         <v>17.17357691351313</v>
       </c>
       <c r="J35" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490851</v>
       </c>
       <c r="K35" t="n">
-        <v>56.66411735457611</v>
+        <v>56.66411735457613</v>
       </c>
       <c r="L35" t="n">
-        <v>70.29684816235581</v>
+        <v>70.29684816235584</v>
       </c>
       <c r="M35" t="n">
-        <v>78.21878833317973</v>
+        <v>78.21878833317976</v>
       </c>
       <c r="N35" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363614</v>
       </c>
       <c r="O35" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921887</v>
       </c>
       <c r="P35" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768641</v>
       </c>
       <c r="Q35" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146336</v>
       </c>
       <c r="R35" t="n">
-        <v>27.98209456697929</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S35" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T35" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03563675904496592</v>
+        <v>0.03563675904496594</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,43 +33728,43 @@
         <v>0.2383418383532128</v>
       </c>
       <c r="H36" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200767</v>
       </c>
       <c r="I36" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143514</v>
       </c>
       <c r="J36" t="n">
-        <v>22.51807692967788</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K36" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934315</v>
       </c>
       <c r="L36" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191142</v>
       </c>
       <c r="M36" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221537</v>
       </c>
       <c r="N36" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169811</v>
       </c>
       <c r="O36" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608218</v>
       </c>
       <c r="P36" t="n">
-        <v>45.51283753606219</v>
+        <v>45.5128375360622</v>
       </c>
       <c r="Q36" t="n">
-        <v>30.42412659399958</v>
+        <v>30.42412659399959</v>
       </c>
       <c r="R36" t="n">
-        <v>14.79810115670211</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S36" t="n">
-        <v>4.427095111516909</v>
+        <v>4.427095111516911</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938707</v>
       </c>
       <c r="U36" t="n">
         <v>0.01568038410218506</v>
@@ -33804,46 +33804,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H37" t="n">
         <v>1.776561813229859</v>
       </c>
       <c r="I37" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593428</v>
       </c>
       <c r="J37" t="n">
         <v>14.12711781338303</v>
       </c>
       <c r="K37" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L37" t="n">
-        <v>29.7074559238866</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M37" t="n">
-        <v>31.32234697906179</v>
+        <v>31.3223469790618</v>
       </c>
       <c r="N37" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678755</v>
       </c>
       <c r="O37" t="n">
-        <v>28.24333647453766</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P37" t="n">
-        <v>24.16705354111453</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R37" t="n">
-        <v>8.984534486947723</v>
+        <v>8.984534486947727</v>
       </c>
       <c r="S37" t="n">
-        <v>3.482279136975087</v>
+        <v>3.482279136975089</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.853766924558316</v>
       </c>
       <c r="U37" t="n">
         <v>0.01089915222840405</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.4454594880620742</v>
       </c>
       <c r="H38" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115719</v>
       </c>
       <c r="I38" t="n">
         <v>17.17357691351313</v>
       </c>
       <c r="J38" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490851</v>
       </c>
       <c r="K38" t="n">
-        <v>56.66411735457611</v>
+        <v>56.66411735457613</v>
       </c>
       <c r="L38" t="n">
-        <v>70.29684816235581</v>
+        <v>70.29684816235584</v>
       </c>
       <c r="M38" t="n">
-        <v>78.21878833317973</v>
+        <v>78.21878833317976</v>
       </c>
       <c r="N38" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363614</v>
       </c>
       <c r="O38" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921887</v>
       </c>
       <c r="P38" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768641</v>
       </c>
       <c r="Q38" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146336</v>
       </c>
       <c r="R38" t="n">
-        <v>27.98209456697929</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S38" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T38" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03563675904496592</v>
+        <v>0.03563675904496594</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,43 +33965,43 @@
         <v>0.2383418383532128</v>
       </c>
       <c r="H39" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200767</v>
       </c>
       <c r="I39" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143514</v>
       </c>
       <c r="J39" t="n">
-        <v>22.51807692967788</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K39" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934315</v>
       </c>
       <c r="L39" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191142</v>
       </c>
       <c r="M39" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221537</v>
       </c>
       <c r="N39" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169811</v>
       </c>
       <c r="O39" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608218</v>
       </c>
       <c r="P39" t="n">
-        <v>45.51283753606219</v>
+        <v>45.5128375360622</v>
       </c>
       <c r="Q39" t="n">
-        <v>30.42412659399958</v>
+        <v>30.42412659399959</v>
       </c>
       <c r="R39" t="n">
-        <v>14.79810115670211</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S39" t="n">
-        <v>4.427095111516909</v>
+        <v>4.427095111516911</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938707</v>
       </c>
       <c r="U39" t="n">
         <v>0.01568038410218506</v>
@@ -34041,46 +34041,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H40" t="n">
         <v>1.776561813229859</v>
       </c>
       <c r="I40" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593428</v>
       </c>
       <c r="J40" t="n">
         <v>14.12711781338303</v>
       </c>
       <c r="K40" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L40" t="n">
-        <v>29.7074559238866</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M40" t="n">
-        <v>31.32234697906179</v>
+        <v>31.3223469790618</v>
       </c>
       <c r="N40" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678755</v>
       </c>
       <c r="O40" t="n">
-        <v>28.24333647453766</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P40" t="n">
-        <v>24.16705354111453</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R40" t="n">
-        <v>8.984534486947723</v>
+        <v>8.984534486947727</v>
       </c>
       <c r="S40" t="n">
-        <v>3.482279136975087</v>
+        <v>3.482279136975089</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.853766924558316</v>
       </c>
       <c r="U40" t="n">
         <v>0.01089915222840405</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.4454594880620742</v>
       </c>
       <c r="H41" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115719</v>
       </c>
       <c r="I41" t="n">
         <v>17.17357691351313</v>
       </c>
       <c r="J41" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490851</v>
       </c>
       <c r="K41" t="n">
-        <v>56.66411735457611</v>
+        <v>56.66411735457613</v>
       </c>
       <c r="L41" t="n">
-        <v>70.29684816235581</v>
+        <v>70.29684816235584</v>
       </c>
       <c r="M41" t="n">
-        <v>78.21878833317973</v>
+        <v>78.21878833317976</v>
       </c>
       <c r="N41" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363614</v>
       </c>
       <c r="O41" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921887</v>
       </c>
       <c r="P41" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768641</v>
       </c>
       <c r="Q41" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146336</v>
       </c>
       <c r="R41" t="n">
-        <v>27.98209456697929</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S41" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T41" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03563675904496592</v>
+        <v>0.03563675904496594</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,43 +34202,43 @@
         <v>0.2383418383532128</v>
       </c>
       <c r="H42" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200767</v>
       </c>
       <c r="I42" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143514</v>
       </c>
       <c r="J42" t="n">
-        <v>22.51807692967788</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K42" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934315</v>
       </c>
       <c r="L42" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191142</v>
       </c>
       <c r="M42" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221537</v>
       </c>
       <c r="N42" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169811</v>
       </c>
       <c r="O42" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608218</v>
       </c>
       <c r="P42" t="n">
-        <v>45.51283753606219</v>
+        <v>45.5128375360622</v>
       </c>
       <c r="Q42" t="n">
-        <v>30.42412659399958</v>
+        <v>30.42412659399959</v>
       </c>
       <c r="R42" t="n">
-        <v>14.79810115670211</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S42" t="n">
-        <v>4.427095111516909</v>
+        <v>4.427095111516911</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938707</v>
       </c>
       <c r="U42" t="n">
         <v>0.01568038410218506</v>
@@ -34278,46 +34278,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H43" t="n">
         <v>1.776561813229859</v>
       </c>
       <c r="I43" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593428</v>
       </c>
       <c r="J43" t="n">
         <v>14.12711781338303</v>
       </c>
       <c r="K43" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L43" t="n">
-        <v>29.7074559238866</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M43" t="n">
-        <v>31.32234697906179</v>
+        <v>31.3223469790618</v>
       </c>
       <c r="N43" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678755</v>
       </c>
       <c r="O43" t="n">
-        <v>28.24333647453766</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P43" t="n">
-        <v>24.16705354111453</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R43" t="n">
-        <v>8.984534486947723</v>
+        <v>8.984534486947727</v>
       </c>
       <c r="S43" t="n">
-        <v>3.482279136975087</v>
+        <v>3.482279136975089</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.853766924558316</v>
       </c>
       <c r="U43" t="n">
         <v>0.01089915222840405</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4454594880620741</v>
+        <v>0.4454594880620742</v>
       </c>
       <c r="H44" t="n">
-        <v>4.562061982115718</v>
+        <v>4.562061982115719</v>
       </c>
       <c r="I44" t="n">
         <v>17.17357691351313</v>
       </c>
       <c r="J44" t="n">
-        <v>37.8078172249085</v>
+        <v>37.80781722490851</v>
       </c>
       <c r="K44" t="n">
-        <v>56.66411735457611</v>
+        <v>56.66411735457613</v>
       </c>
       <c r="L44" t="n">
-        <v>70.29684816235581</v>
+        <v>70.29684816235584</v>
       </c>
       <c r="M44" t="n">
-        <v>78.21878833317973</v>
+        <v>78.21878833317976</v>
       </c>
       <c r="N44" t="n">
-        <v>79.48445010363611</v>
+        <v>79.48445010363614</v>
       </c>
       <c r="O44" t="n">
-        <v>75.05491231921884</v>
+        <v>75.05491231921887</v>
       </c>
       <c r="P44" t="n">
-        <v>64.05763120768638</v>
+        <v>64.05763120768641</v>
       </c>
       <c r="Q44" t="n">
-        <v>48.10461329146334</v>
+        <v>48.10461329146336</v>
       </c>
       <c r="R44" t="n">
-        <v>27.98209456697929</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S44" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T44" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03563675904496592</v>
+        <v>0.03563675904496594</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,43 +34439,43 @@
         <v>0.2383418383532128</v>
       </c>
       <c r="H45" t="n">
-        <v>2.301880386200766</v>
+        <v>2.301880386200767</v>
       </c>
       <c r="I45" t="n">
-        <v>8.20606768014351</v>
+        <v>8.206067680143514</v>
       </c>
       <c r="J45" t="n">
-        <v>22.51807692967788</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K45" t="n">
-        <v>38.48698009934314</v>
+        <v>38.48698009934315</v>
       </c>
       <c r="L45" t="n">
-        <v>51.7504943319114</v>
+        <v>51.75049433191142</v>
       </c>
       <c r="M45" t="n">
-        <v>60.39038597221535</v>
+        <v>60.39038597221537</v>
       </c>
       <c r="N45" t="n">
-        <v>61.98873979169809</v>
+        <v>61.98873979169811</v>
       </c>
       <c r="O45" t="n">
-        <v>56.70758642608216</v>
+        <v>56.70758642608218</v>
       </c>
       <c r="P45" t="n">
-        <v>45.51283753606219</v>
+        <v>45.5128375360622</v>
       </c>
       <c r="Q45" t="n">
-        <v>30.42412659399958</v>
+        <v>30.42412659399959</v>
       </c>
       <c r="R45" t="n">
-        <v>14.79810115670211</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S45" t="n">
-        <v>4.427095111516909</v>
+        <v>4.427095111516911</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9606848659938704</v>
+        <v>0.9606848659938707</v>
       </c>
       <c r="U45" t="n">
         <v>0.01568038410218506</v>
@@ -34515,46 +34515,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H46" t="n">
         <v>1.776561813229859</v>
       </c>
       <c r="I46" t="n">
-        <v>6.009065928593426</v>
+        <v>6.009065928593428</v>
       </c>
       <c r="J46" t="n">
         <v>14.12711781338303</v>
       </c>
       <c r="K46" t="n">
-        <v>23.21519424650058</v>
+        <v>23.21519424650059</v>
       </c>
       <c r="L46" t="n">
-        <v>29.7074559238866</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M46" t="n">
-        <v>31.32234697906179</v>
+        <v>31.3223469790618</v>
       </c>
       <c r="N46" t="n">
-        <v>30.57757157678754</v>
+        <v>30.57757157678755</v>
       </c>
       <c r="O46" t="n">
-        <v>28.24333647453766</v>
+        <v>28.24333647453767</v>
       </c>
       <c r="P46" t="n">
-        <v>24.16705354111453</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R46" t="n">
-        <v>8.984534486947723</v>
+        <v>8.984534486947727</v>
       </c>
       <c r="S46" t="n">
-        <v>3.482279136975087</v>
+        <v>3.482279136975089</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8537669245583157</v>
+        <v>0.853766924558316</v>
       </c>
       <c r="U46" t="n">
         <v>0.01089915222840405</v>
@@ -35404,7 +35404,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>30.39929300540029</v>
+        <v>30.3992930054003</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>58.87461752662944</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>68.39702598806997</v>
       </c>
       <c r="N11" t="n">
-        <v>54.18145175174368</v>
+        <v>63.24947965448698</v>
       </c>
       <c r="O11" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>49.80658962388629</v>
       </c>
       <c r="R11" t="n">
-        <v>36.23621915821165</v>
+        <v>36.23621915821167</v>
       </c>
       <c r="S11" t="n">
         <v>22.73598032068647</v>
@@ -35468,7 +35468,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>52.22885684391456</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>52.22885684391455</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>3.408854232371775</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -35550,16 +35550,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>68.39702598806997</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>68.39702598806997</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>50.7602528207572</v>
       </c>
       <c r="H13" t="n">
-        <v>58.59251376432421</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -35580,16 +35580,16 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>9.9302084996982</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.0434107771766</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>30.39929300540029</v>
+        <v>30.3992930054003</v>
       </c>
       <c r="J14" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>60.52653654573125</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>58.87461752662946</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2.722943108755623</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>38.45238413030427</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>57.05548430630979</v>
       </c>
       <c r="Q14" t="n">
-        <v>49.80658962388627</v>
+        <v>49.80658962388629</v>
       </c>
       <c r="R14" t="n">
-        <v>36.23621915821165</v>
+        <v>36.23621915821167</v>
       </c>
       <c r="S14" t="n">
-        <v>22.73598032068647</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>52.22885684391455</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>52.22885684391456</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35778,10 +35778,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>38.36633246932738</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>51.11347102880885</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -35805,22 +35805,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>33.08632954306271</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>54.16910705312909</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35878,16 +35878,16 @@
         <v>16.94827559451693</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>26.68833871397956</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>26.6883387139796</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35902,19 +35902,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>68.39702598806993</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.39702598806993</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="U17" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="V17" t="n">
         <v>21.99689547803524</v>
@@ -36115,10 +36115,10 @@
         <v>16.94827559451693</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>26.68833871397961</v>
       </c>
       <c r="J20" t="n">
-        <v>68.39702598806993</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36145,13 +36145,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>26.68833871397956</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="T20" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="U20" t="n">
-        <v>68.39702598806993</v>
+        <v>68.39702598806998</v>
       </c>
       <c r="V20" t="n">
         <v>21.99689547803524</v>
@@ -36349,10 +36349,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>16.94827559451693</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>26.68833871397953</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36370,28 +36370,28 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>65.63350978653177</v>
       </c>
       <c r="P23" t="n">
-        <v>68.3970259880699</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.39702598807</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>68.39702598807</v>
       </c>
       <c r="T23" t="n">
-        <v>68.3970259880699</v>
+        <v>68.39702598807</v>
       </c>
       <c r="U23" t="n">
-        <v>68.3970259880699</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>21.99689547803524</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36595,31 +36595,31 @@
         <v>258.1636583777747</v>
       </c>
       <c r="K26" t="n">
-        <v>166.4503291902986</v>
+        <v>400.2028599471601</v>
       </c>
       <c r="L26" t="n">
-        <v>61.43971185404686</v>
+        <v>61.43971185404689</v>
       </c>
       <c r="M26" t="n">
-        <v>74.64632922401742</v>
+        <v>74.64632922401745</v>
       </c>
       <c r="N26" t="n">
-        <v>76.82183138438856</v>
+        <v>76.82183138438859</v>
       </c>
       <c r="O26" t="n">
-        <v>246.7413446963295</v>
+        <v>296.4144896263505</v>
       </c>
       <c r="P26" t="n">
-        <v>392.8705967211122</v>
+        <v>394.2912351320692</v>
       </c>
       <c r="Q26" t="n">
-        <v>273.1792742376045</v>
+        <v>52.16415595017597</v>
       </c>
       <c r="R26" t="n">
-        <v>107.1463901535308</v>
+        <v>68.61626899122325</v>
       </c>
       <c r="S26" t="n">
-        <v>25.3010746481039</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36692,10 +36692,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>44.37732844655483</v>
       </c>
       <c r="R27" t="n">
-        <v>44.37732844655483</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36726,7 +36726,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>40.9314267967448</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -36765,13 +36765,13 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>114.2633297714196</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>136.2074026648469</v>
+        <v>62.87549969017219</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,37 +36826,37 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>32.96438733281772</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>258.1636583777747</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>179.1877416597314</v>
+        <v>400.2028599471601</v>
       </c>
       <c r="L29" t="n">
-        <v>61.43971185404686</v>
+        <v>61.43971185404695</v>
       </c>
       <c r="M29" t="n">
-        <v>74.64632922401742</v>
+        <v>74.64632922401751</v>
       </c>
       <c r="N29" t="n">
-        <v>76.82183138438856</v>
+        <v>76.82183138438864</v>
       </c>
       <c r="O29" t="n">
-        <v>300.9283704838415</v>
+        <v>433.3080812606694</v>
       </c>
       <c r="P29" t="n">
-        <v>394.2912351320691</v>
+        <v>394.2912351320692</v>
       </c>
       <c r="Q29" t="n">
-        <v>273.1792742376045</v>
+        <v>167.8684888641415</v>
       </c>
       <c r="R29" t="n">
-        <v>38.80131348562908</v>
+        <v>107.1463901535309</v>
       </c>
       <c r="S29" t="n">
-        <v>25.3010746481039</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>44.37732844655483</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36935,7 +36935,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>44.37732844655466</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -36963,7 +36963,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>40.9314267967448</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -36981,10 +36981,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>61.15760809174164</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>73.26563741861841</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -37005,16 +37005,16 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>87.10907256690088</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>90.02975689469056</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1.784157154486882</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -37063,37 +37063,37 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>32.96438733281778</v>
       </c>
       <c r="J32" t="n">
-        <v>82.30317859881796</v>
+        <v>258.1636583777748</v>
       </c>
       <c r="K32" t="n">
-        <v>63.09163087314867</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>61.43971185404686</v>
+        <v>310.5080046624078</v>
       </c>
       <c r="M32" t="n">
-        <v>348.6463541573755</v>
+        <v>433.3080812606694</v>
       </c>
       <c r="N32" t="n">
-        <v>433.3080812606695</v>
+        <v>143.8092040428847</v>
       </c>
       <c r="O32" t="n">
-        <v>246.7413446963295</v>
+        <v>71.72427447050298</v>
       </c>
       <c r="P32" t="n">
-        <v>295.3754776266984</v>
+        <v>59.62057863372728</v>
       </c>
       <c r="Q32" t="n">
-        <v>52.37168395130369</v>
+        <v>273.1792742376047</v>
       </c>
       <c r="R32" t="n">
-        <v>107.1463901535308</v>
+        <v>107.1463901535309</v>
       </c>
       <c r="S32" t="n">
-        <v>25.3010746481039</v>
+        <v>25.30107464810396</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37133,7 +37133,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>44.37732844655466</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>44.37732844655483</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37212,19 +37212,19 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>42.71558395123169</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>61.15760809174164</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>73.26563741861841</v>
+        <v>73.26563741861847</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>103.873192042973</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>55.08398553735952</v>
+        <v>55.08398553735955</v>
       </c>
       <c r="J35" t="n">
         <v>280.2832565823165</v>
       </c>
       <c r="K35" t="n">
-        <v>85.21122907769048</v>
+        <v>85.21122907769052</v>
       </c>
       <c r="L35" t="n">
-        <v>83.55931005858866</v>
+        <v>83.55931005858872</v>
       </c>
       <c r="M35" t="n">
-        <v>96.76592742855922</v>
+        <v>96.76592742855928</v>
       </c>
       <c r="N35" t="n">
-        <v>98.94142958893036</v>
+        <v>352.5094855934287</v>
       </c>
       <c r="O35" t="n">
-        <v>210.3401476619569</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>364.9110552725995</v>
+        <v>81.74017683826905</v>
       </c>
       <c r="Q35" t="n">
-        <v>74.4912821558455</v>
+        <v>210.94070953781</v>
       </c>
       <c r="R35" t="n">
-        <v>25.77244564824882</v>
+        <v>129.2659883580727</v>
       </c>
       <c r="S35" t="n">
-        <v>47.42067285264569</v>
+        <v>47.42067285264573</v>
       </c>
       <c r="T35" t="n">
-        <v>22.11959820454179</v>
+        <v>22.11959820454182</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37400,10 +37400,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>6.993807017681491</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.993807017681466</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37437,7 +37437,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>63.05102500128663</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -37467,10 +37467,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.907161076554482</v>
       </c>
       <c r="M37" t="n">
-        <v>97.60856006252351</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -37491,7 +37491,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>15.65601742502109</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37503,7 +37503,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>16.99435655966118</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>55.08398553735952</v>
+        <v>55.08398553735955</v>
       </c>
       <c r="J38" t="n">
         <v>280.2832565823165</v>
       </c>
       <c r="K38" t="n">
-        <v>85.21122907769048</v>
+        <v>364.9110552725994</v>
       </c>
       <c r="L38" t="n">
-        <v>83.55931005858866</v>
+        <v>83.55931005858872</v>
       </c>
       <c r="M38" t="n">
-        <v>96.76592742855922</v>
+        <v>96.76592742855928</v>
       </c>
       <c r="N38" t="n">
-        <v>98.94142958893036</v>
+        <v>209.2590867804846</v>
       </c>
       <c r="O38" t="n">
-        <v>93.84387267504469</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>296.0791761646856</v>
+        <v>81.74017683826905</v>
       </c>
       <c r="Q38" t="n">
-        <v>156.3258935408479</v>
+        <v>74.49128215584554</v>
       </c>
       <c r="R38" t="n">
-        <v>129.2659883580726</v>
+        <v>129.2659883580727</v>
       </c>
       <c r="S38" t="n">
-        <v>47.42067285264569</v>
+        <v>47.42067285264573</v>
       </c>
       <c r="T38" t="n">
-        <v>22.11959820454179</v>
+        <v>22.11959820454182</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>6.993807017681491</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>6.993807017681466</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>97.60856006252341</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>97.60856006252351</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37774,40 +37774,40 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>55.08398553735952</v>
+        <v>55.08398553735958</v>
       </c>
       <c r="J41" t="n">
         <v>280.2832565823165</v>
       </c>
       <c r="K41" t="n">
-        <v>85.21122907769048</v>
+        <v>85.21122907769055</v>
       </c>
       <c r="L41" t="n">
-        <v>83.55931005858866</v>
+        <v>83.55931005858875</v>
       </c>
       <c r="M41" t="n">
-        <v>96.76592742855922</v>
+        <v>96.76592742855931</v>
       </c>
       <c r="N41" t="n">
-        <v>98.94142958893036</v>
+        <v>98.94142958893045</v>
       </c>
       <c r="O41" t="n">
-        <v>93.84387267504469</v>
+        <v>93.84387267504478</v>
       </c>
       <c r="P41" t="n">
-        <v>364.9110552725995</v>
+        <v>157.1061972633858</v>
       </c>
       <c r="Q41" t="n">
-        <v>96.57053763653724</v>
+        <v>295.2988724421464</v>
       </c>
       <c r="R41" t="n">
-        <v>120.1894651544691</v>
+        <v>129.2659883580727</v>
       </c>
       <c r="S41" t="n">
-        <v>47.42067285264569</v>
+        <v>47.42067285264576</v>
       </c>
       <c r="T41" t="n">
-        <v>22.11959820454179</v>
+        <v>22.11959820454184</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>6.993807017681491</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37889,7 +37889,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>6.993807017681437</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -37917,7 +37917,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>5.16925815014563</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37926,7 +37926,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>75.44494535271647</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>97.60856006252351</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -37977,7 +37977,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>16.99435655966121</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -38014,34 +38014,34 @@
         <v>55.08398553735952</v>
       </c>
       <c r="J44" t="n">
-        <v>280.2832565823165</v>
+        <v>104.4227768033598</v>
       </c>
       <c r="K44" t="n">
-        <v>85.21122907769048</v>
+        <v>85.21122907769049</v>
       </c>
       <c r="L44" t="n">
-        <v>83.55931005858866</v>
+        <v>83.55931005858869</v>
       </c>
       <c r="M44" t="n">
-        <v>96.76592742855922</v>
+        <v>96.76592742855925</v>
       </c>
       <c r="N44" t="n">
-        <v>98.94142958893036</v>
+        <v>98.94142958893039</v>
       </c>
       <c r="O44" t="n">
-        <v>93.84387267504469</v>
+        <v>364.9110552725994</v>
       </c>
       <c r="P44" t="n">
-        <v>279.2154215294288</v>
+        <v>282.7070847310895</v>
       </c>
       <c r="Q44" t="n">
-        <v>295.2988724421464</v>
+        <v>74.49128215584551</v>
       </c>
       <c r="R44" t="n">
-        <v>7.15676409203073</v>
+        <v>129.2659883580726</v>
       </c>
       <c r="S44" t="n">
-        <v>47.42067285264569</v>
+        <v>47.4206728526457</v>
       </c>
       <c r="T44" t="n">
         <v>22.11959820454179</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>6.993807017681491</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38138,7 +38138,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>6.993807017681495</v>
       </c>
     </row>
     <row r="46">
@@ -38187,7 +38187,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>6.154379076734356</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -38199,10 +38199,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>21.81039650175541</v>
       </c>
       <c r="T46" t="n">
-        <v>15.65601742502106</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
